--- a/ExcelSheets/SimpleBatteryCharging.xlsx
+++ b/ExcelSheets/SimpleBatteryCharging.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCE7743-15B2-4C8A-9634-7368F54496E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A60A80D-ABC6-4BE9-90BE-8B28DB35A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -15,13 +15,12 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dashboard!$A$3:$F$10</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Dashboard!$I$28</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Dashboard!$I$29:$I$91</definedName>
-    <definedName name="MATCHINTABLE">[2]!Table4[#Headers]</definedName>
+    <definedName name="MATCHINTABLE">[1]!Table4[#Headers]</definedName>
     <definedName name="UGU" localSheetId="3">Dashboard!$E$2:$H$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,87 +63,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
-  <si>
-    <t>Modelon Impact Add-In for Excel version 1.0</t>
-  </si>
-  <si>
-    <t>Read Me</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>Introduction</t>
-  </si>
-  <si>
-    <t>The Modelon Impact Add-In for Excel lets you set up, configure and execute model experiments in Modelon Impact directly in Excel.</t>
-  </si>
-  <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>Click here for detailed installation instructions.</t>
-  </si>
-  <si>
-    <t>The procedure to install the add in is slightly different depending on if you use the Desktop or the Online version of Excel.</t>
-  </si>
-  <si>
-    <t>Excel Online:</t>
-  </si>
-  <si>
-    <t>1. Download the manifest file from the option "Add-in manifest file" in the Apps menu.</t>
-  </si>
-  <si>
-    <t>2. Go to the "Insert"-tab and open "Add-ins".</t>
-  </si>
-  <si>
-    <t>3. Click "Manage My  Add-ins" and choose "Upload My Add-In".</t>
-  </si>
-  <si>
-    <t>4. Upload the manifest.xml file downloaded in 1.</t>
-  </si>
-  <si>
-    <t>Excel Desktop:</t>
-  </si>
-  <si>
-    <t>1. Download the manifest file from the option in the Apps menu.</t>
-  </si>
-  <si>
-    <t>2. Create a new folder somewhere on your computer, for example "C:\Manifest".</t>
-  </si>
-  <si>
-    <t>3. Save the manifest.xml file in this folder.</t>
-  </si>
-  <si>
-    <t>4. Right-click on the folder, and select "Properties".</t>
-  </si>
-  <si>
-    <t>5. Under the "Sharing" tab click "Share".</t>
-  </si>
-  <si>
-    <t>6. Click "Share" again to share the folder with only your own user.</t>
-  </si>
-  <si>
-    <t>7. In Excel Desktop, go to  "Insert" and then "Get Add-ins".</t>
-  </si>
-  <si>
-    <t>8. Under Shared Folder, Modelon Impact is now available, click to install.</t>
-  </si>
-  <si>
-    <t>If the installation was succesful, a new group "Impact" should appear under the "Home" tab. Now you are ready to start using the Modelon Impact Add-In for Excel.</t>
-  </si>
-  <si>
-    <t>Set up your first experiment</t>
-  </si>
-  <si>
-    <t>Click here for detailed instructions on how to get started.</t>
-  </si>
-  <si>
-    <t>TODO: Add instructions on how to set up a simple experiment, nudge users to HC-material to highlight things to be careful with when using the add-in</t>
-  </si>
-  <si>
-    <t>Resources for Modelon Impact Add-In for Excel</t>
-  </si>
-  <si>
-    <t>TODO: Add links to HC-articles</t>
   </si>
   <si>
     <t>Info</t>
@@ -330,12 +251,6 @@
     <t>battery.summary.e_loss</t>
   </si>
   <si>
-    <t>Workspace link</t>
-  </si>
-  <si>
-    <t>Impact workspace: ExcelDemo</t>
-  </si>
-  <si>
     <t>Battery Charging Design - Modelon Impact Excel Add-in</t>
   </si>
   <si>
@@ -419,6 +334,42 @@
   <si>
     <t>Efficient?</t>
   </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Modelon Impact Add-In for Excel</t>
+  </si>
+  <si>
+    <t>https://impact.modelon.cloud/</t>
+  </si>
+  <si>
+    <t>In order to run the experiment there are a couple of things required:</t>
+  </si>
+  <si>
+    <t>1. If not done already: Install the Modelon Impact Add-In for Excel</t>
+  </si>
+  <si>
+    <t>Once these are in place, you simply just launch the Add-In and run the experiment from the ModelonExperiment.</t>
+  </si>
+  <si>
+    <t>Workspace Link</t>
+  </si>
+  <si>
+    <t>Installation instructions</t>
+  </si>
+  <si>
+    <t>After finished execution, the Dashboard charts are populated with the values from the experiment sheet.</t>
+  </si>
+  <si>
+    <t>Note: The workspace link will only work on impact.modelon.cloud, if you are using a privately hosted instance of Modelon Impact you need to adapt the URL to point at this specific instance.</t>
+  </si>
+  <si>
+    <t>2.  If not done already: Check out the workspace needed for the experiment by clicking here:</t>
+  </si>
+  <si>
+    <t>Example: Battery Charging with Analysis Dashboard</t>
+  </si>
 </sst>
 </file>
 
@@ -428,7 +379,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,14 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -603,6 +546,21 @@
       <b/>
       <sz val="11"/>
       <name val="ModelonTitilliumRegular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1076,16 +1034,16 @@
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -1105,7 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1137,114 +1094,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="22" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="25" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="26" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="10" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="10" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="10" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="10" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="24" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="25" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="26" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="25" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="13" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="6" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="10" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="10" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="10" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="10" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1259,112 +1220,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="ModelonTitilliumRegular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="ModelonTitilliumRegular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="ModelonTitilliumRegular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="ModelonTitilliumRegular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="ModelonTitilliumRegular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="ModelonTitilliumRegular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1495,6 +1350,112 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="ModelonTitilliumRegular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="ModelonTitilliumRegular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="ModelonTitilliumRegular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="ModelonTitilliumRegular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="ModelonTitilliumRegular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="ModelonTitilliumRegular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1690,7 +1651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD461288-0755-4EB4-847A-9F3007AEE3A9}" type="CELLRANGE">
+                    <a:fld id="{7F82F9D3-D2C7-4C41-930E-2A93B4D9DAF4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1723,7 +1684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9259216F-35AF-40E6-BB9B-848E759E76F4}" type="CELLRANGE">
+                    <a:fld id="{35B927AF-3089-49AE-AD59-442D3AE6BD94}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1757,7 +1718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EA1E9A9-C8DE-4F19-9BCE-CEDAFFFBFE93}" type="CELLRANGE">
+                    <a:fld id="{27EFCA26-D6B0-45FD-8BE4-BF2AC64D3E46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1791,7 +1752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E7D3530-520C-4ED8-ABE3-E73F63035BAA}" type="CELLRANGE">
+                    <a:fld id="{E74300E8-8E0B-405C-95C5-460987FC1F9D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1825,7 +1786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{970FBE09-6580-44D9-8F3B-99CC126F8A55}" type="CELLRANGE">
+                    <a:fld id="{C373623C-FF17-4869-AA52-EA15F9BBDC08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1859,7 +1820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{009F9F4B-B3A7-405E-889C-BB6ED0B7736C}" type="CELLRANGE">
+                    <a:fld id="{DB7361DA-5C82-4DD4-8D48-1441B9D13EAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1893,7 +1854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A617515-0912-41CF-A921-9DD5A2A3B21E}" type="CELLRANGE">
+                    <a:fld id="{8E12013B-ABCF-417F-B8DA-31ED7B08E437}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1927,7 +1888,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57CE12E6-4DC1-4CD1-97B0-8A1E973463E5}" type="CELLRANGE">
+                    <a:fld id="{05D291CF-7811-4386-8C87-30FC1F55CC40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1961,7 +1922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A09F0DA1-12DC-4117-A6B3-F8605B8118BC}" type="CELLRANGE">
+                    <a:fld id="{B6F6328E-D0DE-42D5-8611-7F3EDD0BE021}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1995,7 +1956,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD2A5B48-66A5-44B4-B04B-4171A5CFD671}" type="CELLRANGE">
+                    <a:fld id="{EBB15D4D-873C-485D-9603-568EA103B5B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2029,7 +1990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1F26282-3077-4FF6-8BD0-6F86B8267EE8}" type="CELLRANGE">
+                    <a:fld id="{02833AE2-21F8-476F-9FF7-5FB981A39B48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2063,7 +2024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D79DD4E-A3E8-4B66-B317-6EE86FB180B5}" type="CELLRANGE">
+                    <a:fld id="{CA691464-CDCD-42D4-98CD-92487C4A04F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2097,7 +2058,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A226D083-1B6A-46F2-91D7-1F2328564400}" type="CELLRANGE">
+                    <a:fld id="{0FCFC22C-19D4-4AD8-AF25-6F78B5754C19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2131,7 +2092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F260E16-222D-4E45-B201-245FA8879295}" type="CELLRANGE">
+                    <a:fld id="{0D8935FC-A51F-4588-8637-3E92325747E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2165,7 +2126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0E12497-C969-4A7F-9B64-8B756B6C3C6E}" type="CELLRANGE">
+                    <a:fld id="{3331BCE1-2533-4802-980E-63F4E7FDFB27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2199,7 +2160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0519BEF2-71EC-48CB-A8FF-4AF39577D9C3}" type="CELLRANGE">
+                    <a:fld id="{5F41FE02-D5EE-4BC9-83CD-72578284FDD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2233,7 +2194,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EDBAC2E-F5BA-449A-A190-B54AC03F653F}" type="CELLRANGE">
+                    <a:fld id="{63E4F32B-ED92-463A-9C1F-4121471D13D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2267,7 +2228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EB37E26-0C2E-4EFF-9B16-7DEAE7498018}" type="CELLRANGE">
+                    <a:fld id="{75112A54-AFB0-477E-B98C-958B02A704BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2301,7 +2262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F554D813-7224-4814-A121-31AF73582542}" type="CELLRANGE">
+                    <a:fld id="{0BCF1545-D202-4453-9552-C37645356ABF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2335,7 +2296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90D30896-CA7D-48CE-B2DB-1236AE454B5E}" type="CELLRANGE">
+                    <a:fld id="{470A35B4-C69B-453B-A563-47B2989FDD28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2369,7 +2330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE3942DE-722D-48EC-9DCF-78BDD4A46FB7}" type="CELLRANGE">
+                    <a:fld id="{6AE5E7E5-69F3-4B48-8445-7868AC57D10D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2403,7 +2364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97C73EDD-1823-425F-9F19-7511EB00CC58}" type="CELLRANGE">
+                    <a:fld id="{8BB8DB90-7015-4616-966A-9F1FA520EBA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2437,7 +2398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39D8544C-A60A-4F62-A7B1-E7BEFE60B222}" type="CELLRANGE">
+                    <a:fld id="{D85A0AA0-7E28-48C1-80C6-6175CFC19E2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3343,7 +3304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{441C7F4F-06A4-4BF7-8FC3-9383DC92118D}" type="CELLRANGE">
+                    <a:fld id="{C32A02DB-B6EF-4B19-B40E-220D853AD59E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3376,7 +3337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD7789A7-EE1B-463B-8C12-324C0F00EE8B}" type="CELLRANGE">
+                    <a:fld id="{DDC5D9CE-7A36-4055-AC4C-A0A7C2323EBE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3410,7 +3371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1C91E86-5A5C-4603-8B21-B542D81BDAFA}" type="CELLRANGE">
+                    <a:fld id="{C299258F-09D6-4AD2-9EBB-0FE996A13FEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3444,7 +3405,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09CFDADB-4AD4-4E55-94F7-D9B9131FE5C9}" type="CELLRANGE">
+                    <a:fld id="{2704B4B1-BF9C-44AC-B165-6032A6C07832}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3478,7 +3439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9060CD53-E993-4CC9-851F-99A12DA04A6A}" type="CELLRANGE">
+                    <a:fld id="{DA436C01-FF05-4C0D-BCA2-DD78641DDDCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3512,7 +3473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8ED4788-5615-4C95-BC7E-85739AB117A4}" type="CELLRANGE">
+                    <a:fld id="{FBC1B258-647C-44D3-9197-906E476DF8A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3546,7 +3507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3EF24B5-0AF4-4501-9155-629CDF150F0D}" type="CELLRANGE">
+                    <a:fld id="{730DFE19-4A4E-437E-8886-94210A2A75B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3580,7 +3541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76CB446A-F3F5-4DD9-B6DA-6E0471E52624}" type="CELLRANGE">
+                    <a:fld id="{0CA0C4B7-9638-4B9A-BE1F-10583A39E4DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3614,7 +3575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21949930-A22D-4B83-ADDB-D59AA2DC74D4}" type="CELLRANGE">
+                    <a:fld id="{5D4FC5F1-B8FA-444F-91E9-94D76C470732}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3648,7 +3609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0107466-54BD-44CF-8174-719FE12A724E}" type="CELLRANGE">
+                    <a:fld id="{C7FA416A-F244-4EEA-8026-9E94B47DB7A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3682,7 +3643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1429873-E36F-4501-99DA-1E172BDEFC1F}" type="CELLRANGE">
+                    <a:fld id="{0A70ECFF-D09D-40E0-9C15-51924C96DDA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3716,7 +3677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C1B390D-B1CD-4D2B-BB69-4EFE196E791B}" type="CELLRANGE">
+                    <a:fld id="{A501CA88-0F43-4AFE-A75B-10F4383761D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3750,7 +3711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA2F741A-E993-4279-9349-037CE589705D}" type="CELLRANGE">
+                    <a:fld id="{F904AD59-747F-45F4-AD03-0ECDBC46FDD9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3784,7 +3745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41AE76CA-605B-412A-9CB2-26180286D4B4}" type="CELLRANGE">
+                    <a:fld id="{9B520698-7111-466A-996A-C4A26E07BFA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3818,7 +3779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{160AAD24-9278-4085-AAC1-04DB16151F65}" type="CELLRANGE">
+                    <a:fld id="{A716F097-A067-4602-A0C5-1B5127F2865C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3852,7 +3813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{474360E1-87D5-462E-B610-BF4181E5599F}" type="CELLRANGE">
+                    <a:fld id="{34F8AF88-552B-4941-9801-61E4D63D6946}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3886,7 +3847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF753749-EF49-4CF7-B335-428561055AAB}" type="CELLRANGE">
+                    <a:fld id="{6C9D9162-ED5B-4B4B-8712-3A21051D0371}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3920,7 +3881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9517C5B4-3CDE-42BD-9759-0C9D2D52AAD0}" type="CELLRANGE">
+                    <a:fld id="{1814D299-9E88-4233-BA84-6573F6471A74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3954,7 +3915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2B226AB-82E7-4656-8135-8E877F7CDFF4}" type="CELLRANGE">
+                    <a:fld id="{ED35B4D2-F77A-44FC-8D9B-8821F8AC4AD5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3988,7 +3949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC37E83B-EA5D-4624-8641-BDE401D5719F}" type="CELLRANGE">
+                    <a:fld id="{0E33FB5A-4E4A-437F-8965-3A35A2EFFF92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4022,7 +3983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AA6683E-67C8-4B32-B1F8-3188FBAE0D25}" type="CELLRANGE">
+                    <a:fld id="{0C810C6C-6CC7-4D5F-B98D-E38D3ABA1B08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4056,7 +4017,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B65AF9B8-1914-48AC-B7B2-7FF5B1923A1F}" type="CELLRANGE">
+                    <a:fld id="{D05694AD-045D-49A4-890B-8502EF9B3AC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4090,7 +4051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BC3AD67-99CD-41CF-8EF4-32FDABC6F9C5}" type="CELLRANGE">
+                    <a:fld id="{82E73D53-78BE-445E-A102-08678487E361}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7468,6 +7429,131 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781782E7-8503-443F-BC15-9CB7A2D3F0BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="537882" y="1030941"/>
+          <a:ext cx="10516161" cy="3361765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This workbook demonstrates the utilization of the Modelon Impact Add-In for Excel, which enables experiment execution directly from Excel.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The example in this workbook illustrates how to use the Modelon Impact Add-In for Excel to analyze and optimize the configuration of a battery pack charging system. The model used in this example consists of a battery pack connected to an external charger, limited by a maximum current limit. In the example, different battery configurations are compared in terms of charging time and losses. The results can be used to create a trade-off curve (Pareto Frontier) in the Dashboard worksheet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The workbook consists of two sheets: "ModelonExperiment" and "Dashboard".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ModelonExperiment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The "ModelonExperiment" sheet is where the experiment for the battery charging system is set up. When the experiment is executed, it generates results based on the specified battery configurations and charging parameters. The data generated in this sheet serves as input for the analysis and visualization in the "Dashboard" sheet. The sheet has been set up with 30 parameterized cases, however you are free to add more design points to this your own designs as well.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Dashboard:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The "Dashboard" sheet acts as a visual representation and analysis tool for the experiment's results and inputs. It provides a view of the parameterization used in the experiment conducted in the "ModelonExperiment" sheet as well as a Pareto Frontier chart comparing charging time and losses which makes it easy to identify interesting design points.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7482,7 +7568,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>91624</xdr:colOff>
+      <xdr:colOff>91625</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>55359</xdr:rowOff>
     </xdr:to>
@@ -7688,744 +7774,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="templateModelonExp"/>
-      <sheetName val="ModelonExperiment"/>
-      <sheetName val="ME-BatteryCharging"/>
-      <sheetName val="ME-DummyModel"/>
-      <sheetName val="ParamGen"/>
-      <sheetName val="Empty"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Cell Nominal Capacity (Ah)</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Cell Internal Resitance (Ω)</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Charge Time (min)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Charging Losses (Wh)</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28" t="str">
-            <v>Scatter Y</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>1</v>
-          </cell>
-          <cell r="J29">
-            <v>3.0207719110324933</v>
-          </cell>
-          <cell r="K29">
-            <v>3.8095238095238099E-2</v>
-          </cell>
-          <cell r="L29">
-            <v>24.420383845401506</v>
-          </cell>
-          <cell r="M29">
-            <v>4733.0396909811543</v>
-          </cell>
-          <cell r="N29">
-            <v>24.420383845401506</v>
-          </cell>
-          <cell r="O29">
-            <v>4733.0396909811543</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2</v>
-          </cell>
-          <cell r="J30">
-            <v>1.9007341086381975</v>
-          </cell>
-          <cell r="K30">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="L30">
-            <v>26.889807296507659</v>
-          </cell>
-          <cell r="M30">
-            <v>4752.3524475618815</v>
-          </cell>
-          <cell r="N30">
-            <v>26.889807296507659</v>
-          </cell>
-          <cell r="O30" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>3</v>
-          </cell>
-          <cell r="J31">
-            <v>5.2317357844881274</v>
-          </cell>
-          <cell r="K31">
-            <v>0.26666666666666666</v>
-          </cell>
-          <cell r="L31">
-            <v>115</v>
-          </cell>
-          <cell r="M31">
-            <v>4055.6715665282868</v>
-          </cell>
-          <cell r="N31">
-            <v>115</v>
-          </cell>
-          <cell r="O31">
-            <v>4055.6715665282868</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>4</v>
-          </cell>
-          <cell r="J32">
-            <v>9.8481473799895944</v>
-          </cell>
-          <cell r="K32">
-            <v>5.3333333333333337E-2</v>
-          </cell>
-          <cell r="L32">
-            <v>111.44809441103875</v>
-          </cell>
-          <cell r="M32">
-            <v>4924.8731947608858</v>
-          </cell>
-          <cell r="N32">
-            <v>111.44809441103875</v>
-          </cell>
-          <cell r="O32" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>5</v>
-          </cell>
-          <cell r="J33">
-            <v>1.2962034375710811</v>
-          </cell>
-          <cell r="K33">
-            <v>3.8095238095238099E-2</v>
-          </cell>
-          <cell r="L33">
-            <v>10.480374413960194</v>
-          </cell>
-          <cell r="M33">
-            <v>4752.8246770935166</v>
-          </cell>
-          <cell r="N33">
-            <v>10.480374413960194</v>
-          </cell>
-          <cell r="O33">
-            <v>4752.8246770935166</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>6</v>
-          </cell>
-          <cell r="J34">
-            <v>4.8041539729529275</v>
-          </cell>
-          <cell r="K34">
-            <v>5.3333333333333337E-2</v>
-          </cell>
-          <cell r="L34">
-            <v>54.368942128005116</v>
-          </cell>
-          <cell r="M34">
-            <v>4804.7899891599263</v>
-          </cell>
-          <cell r="N34">
-            <v>54.368942128005116</v>
-          </cell>
-          <cell r="O34" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>7</v>
-          </cell>
-          <cell r="J35">
-            <v>3.5796136287573108</v>
-          </cell>
-          <cell r="K35">
-            <v>0.26666666666666666</v>
-          </cell>
-          <cell r="L35">
-            <v>115</v>
-          </cell>
-          <cell r="M35">
-            <v>4547.026230076307</v>
-          </cell>
-          <cell r="N35">
-            <v>115</v>
-          </cell>
-          <cell r="O35">
-            <v>4547.026230076307</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>8</v>
-          </cell>
-          <cell r="J36">
-            <v>3.4198109505629644</v>
-          </cell>
-          <cell r="K36">
-            <v>3.8095238095238099E-2</v>
-          </cell>
-          <cell r="L36">
-            <v>27.645810095102483</v>
-          </cell>
-          <cell r="M36">
-            <v>4788.2621516913541</v>
-          </cell>
-          <cell r="N36">
-            <v>27.645810095102483</v>
-          </cell>
-          <cell r="O36" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>9</v>
-          </cell>
-          <cell r="J37">
-            <v>6.3438787478253564</v>
-          </cell>
-          <cell r="K37">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="L37">
-            <v>89.739471192013383</v>
-          </cell>
-          <cell r="M37">
-            <v>4864.4608866021299</v>
-          </cell>
-          <cell r="N37">
-            <v>89.739471192013383</v>
-          </cell>
-          <cell r="O37" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>10</v>
-          </cell>
-          <cell r="J38">
-            <v>3.9655983599832267</v>
-          </cell>
-          <cell r="K38">
-            <v>3.8095238095238099E-2</v>
-          </cell>
-          <cell r="L38">
-            <v>32.05754156158023</v>
-          </cell>
-          <cell r="M38">
-            <v>4759.2675752941295</v>
-          </cell>
-          <cell r="N38">
-            <v>32.05754156158023</v>
-          </cell>
-          <cell r="O38" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>11</v>
-          </cell>
-          <cell r="J39">
-            <v>1.9067761551277025</v>
-          </cell>
-          <cell r="K39">
-            <v>3.5555555555555556E-2</v>
-          </cell>
-          <cell r="L39">
-            <v>14.388215753666122</v>
-          </cell>
-          <cell r="M39">
-            <v>4767.2144987506854</v>
-          </cell>
-          <cell r="N39">
-            <v>14.388215753666122</v>
-          </cell>
-          <cell r="O39" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>12</v>
-          </cell>
-          <cell r="J40">
-            <v>2.3116230849935238</v>
-          </cell>
-          <cell r="K40">
-            <v>8.8888888888888892E-2</v>
-          </cell>
-          <cell r="L40">
-            <v>43.601175215377829</v>
-          </cell>
-          <cell r="M40">
-            <v>4777.960862848131</v>
-          </cell>
-          <cell r="N40">
-            <v>43.601175215377829</v>
-          </cell>
-          <cell r="O40" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>13</v>
-          </cell>
-          <cell r="J41">
-            <v>5.2231973434611909</v>
-          </cell>
-          <cell r="K41">
-            <v>3.1372549019607843E-2</v>
-          </cell>
-          <cell r="L41">
-            <v>34.772338334184226</v>
-          </cell>
-          <cell r="M41">
-            <v>4701.4376142239717</v>
-          </cell>
-          <cell r="N41">
-            <v>34.772338334184226</v>
-          </cell>
-          <cell r="O41">
-            <v>4701.4376142239717</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>14</v>
-          </cell>
-          <cell r="J42">
-            <v>7.3121340090928992</v>
-          </cell>
-          <cell r="K42">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="L42">
-            <v>103.43733701044589</v>
-          </cell>
-          <cell r="M42">
-            <v>4875.4594246359129</v>
-          </cell>
-          <cell r="N42">
-            <v>103.43733701044589</v>
-          </cell>
-          <cell r="O42" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>15</v>
-          </cell>
-          <cell r="J43">
-            <v>8.5360611675819431</v>
-          </cell>
-          <cell r="K43">
-            <v>2.6666666666666668E-2</v>
-          </cell>
-          <cell r="L43">
-            <v>48.301918939656836</v>
-          </cell>
-          <cell r="M43">
-            <v>4837.7177285952957</v>
-          </cell>
-          <cell r="N43">
-            <v>48.301918939656836</v>
-          </cell>
-          <cell r="O43" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>16</v>
-          </cell>
-          <cell r="J44">
-            <v>6.7252011093307065</v>
-          </cell>
-          <cell r="K44">
-            <v>3.1372549019607843E-2</v>
-          </cell>
-          <cell r="L44">
-            <v>44.771124486120421</v>
-          </cell>
-          <cell r="M44">
-            <v>4708.228818494119</v>
-          </cell>
-          <cell r="N44">
-            <v>44.771124486120421</v>
-          </cell>
-          <cell r="O44" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>17</v>
-          </cell>
-          <cell r="J45">
-            <v>3.567030836873057</v>
-          </cell>
-          <cell r="K45">
-            <v>5.9259259259259262E-2</v>
-          </cell>
-          <cell r="L45">
-            <v>44.854488324937897</v>
-          </cell>
-          <cell r="M45">
-            <v>4756.6347839153786</v>
-          </cell>
-          <cell r="N45">
-            <v>44.854488324937897</v>
-          </cell>
-          <cell r="O45" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>18</v>
-          </cell>
-          <cell r="J46">
-            <v>6.0267262414006364</v>
-          </cell>
-          <cell r="K46">
-            <v>4.4444444444444446E-2</v>
-          </cell>
-          <cell r="L46">
-            <v>56.83727661560993</v>
-          </cell>
-          <cell r="M46">
-            <v>4822.0208285761119</v>
-          </cell>
-          <cell r="N46">
-            <v>56.83727661560993</v>
-          </cell>
-          <cell r="O46" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>19</v>
-          </cell>
-          <cell r="J47">
-            <v>5.0087690323275842</v>
-          </cell>
-          <cell r="K47">
-            <v>4.4444444444444446E-2</v>
-          </cell>
-          <cell r="L47">
-            <v>47.237800590382058</v>
-          </cell>
-          <cell r="M47">
-            <v>4842.4223561487806</v>
-          </cell>
-          <cell r="N47">
-            <v>47.237800590382058</v>
-          </cell>
-          <cell r="O47" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>20</v>
-          </cell>
-          <cell r="J48">
-            <v>1.8245181545702631</v>
-          </cell>
-          <cell r="K48">
-            <v>5.3333333333333337E-2</v>
-          </cell>
-          <cell r="L48">
-            <v>20.64997103187136</v>
-          </cell>
-          <cell r="M48">
-            <v>4744.178729756808</v>
-          </cell>
-          <cell r="N48">
-            <v>20.64997103187136</v>
-          </cell>
-          <cell r="O48">
-            <v>4744.178729756808</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>21</v>
-          </cell>
-          <cell r="J49">
-            <v>7.8375033235110827</v>
-          </cell>
-          <cell r="K49">
-            <v>3.5555555555555556E-2</v>
-          </cell>
-          <cell r="L49">
-            <v>59.131461238011283</v>
-          </cell>
-          <cell r="M49">
-            <v>4703.1329840546141</v>
-          </cell>
-          <cell r="N49">
-            <v>59.131461238011283</v>
-          </cell>
-          <cell r="O49" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>22</v>
-          </cell>
-          <cell r="J50">
-            <v>1.5673309242930706</v>
-          </cell>
-          <cell r="K50">
-            <v>5.9259259259259262E-2</v>
-          </cell>
-          <cell r="L50">
-            <v>19.710231025623347</v>
-          </cell>
-          <cell r="M50">
-            <v>4754.6436178290005</v>
-          </cell>
-          <cell r="N50">
-            <v>19.710231025623347</v>
-          </cell>
-          <cell r="O50" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>23</v>
-          </cell>
-          <cell r="J51">
-            <v>1.3548446680809141</v>
-          </cell>
-          <cell r="K51">
-            <v>2.9629629629629631E-2</v>
-          </cell>
-          <cell r="L51">
-            <v>8.5206385835066989</v>
-          </cell>
-          <cell r="M51">
-            <v>4787.075175692622</v>
-          </cell>
-          <cell r="N51">
-            <v>8.5206385835066989</v>
-          </cell>
-          <cell r="O51">
-            <v>4787.075175692622</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>24</v>
-          </cell>
-          <cell r="J52">
-            <v>5.4345133372042831</v>
-          </cell>
-          <cell r="K52">
-            <v>4.4444444444444446E-2</v>
-          </cell>
-          <cell r="L52">
-            <v>51.252464150815143</v>
-          </cell>
-          <cell r="M52">
-            <v>4710.5285130878365</v>
-          </cell>
-          <cell r="N52">
-            <v>51.252464150815143</v>
-          </cell>
-          <cell r="O52" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>25</v>
-          </cell>
-          <cell r="J53">
-            <v>3.3893628518114904</v>
-          </cell>
-          <cell r="K53">
-            <v>3.8095238095238099E-2</v>
-          </cell>
-          <cell r="L53">
-            <v>27.399677877896337</v>
-          </cell>
-          <cell r="M53">
-            <v>4745.6294427490111</v>
-          </cell>
-          <cell r="N53">
-            <v>27.399677877896337</v>
-          </cell>
-          <cell r="O53" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>26</v>
-          </cell>
-          <cell r="J54">
-            <v>1.8140926173695608</v>
-          </cell>
-          <cell r="K54">
-            <v>5.3333333333333337E-2</v>
-          </cell>
-          <cell r="L54">
-            <v>20.532001196281474</v>
-          </cell>
-          <cell r="M54">
-            <v>4777.541246804999</v>
-          </cell>
-          <cell r="N54">
-            <v>20.532001196281474</v>
-          </cell>
-          <cell r="O54" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>27</v>
-          </cell>
-          <cell r="J55">
-            <v>3.1250563055235303</v>
-          </cell>
-          <cell r="K55">
-            <v>4.1025641025641026E-2</v>
-          </cell>
-          <cell r="L55">
-            <v>27.206363238244254</v>
-          </cell>
-          <cell r="M55">
-            <v>4792.2760146958399</v>
-          </cell>
-          <cell r="N55">
-            <v>27.206363238244254</v>
-          </cell>
-          <cell r="O55" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>28</v>
-          </cell>
-          <cell r="J56">
-            <v>3.1523345123147446</v>
-          </cell>
-          <cell r="K56">
-            <v>8.8888888888888892E-2</v>
-          </cell>
-          <cell r="L56">
-            <v>59.458380008409492</v>
-          </cell>
-          <cell r="M56">
-            <v>4729.1368027938943</v>
-          </cell>
-          <cell r="N56">
-            <v>59.458380008409492</v>
-          </cell>
-          <cell r="O56" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>29</v>
-          </cell>
-          <cell r="J57">
-            <v>3.5881836784725278</v>
-          </cell>
-          <cell r="K57">
-            <v>0.13333333333333333</v>
-          </cell>
-          <cell r="L57">
-            <v>101.51569715217896</v>
-          </cell>
-          <cell r="M57">
-            <v>4785.0326487438952</v>
-          </cell>
-          <cell r="N57">
-            <v>101.51569715217896</v>
-          </cell>
-          <cell r="O57" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>30</v>
-          </cell>
-          <cell r="L58">
-            <v>79.491861048584553</v>
-          </cell>
-          <cell r="M58">
-            <v>4894.2059087410144</v>
-          </cell>
-          <cell r="N58">
-            <v>79.491861048584553</v>
-          </cell>
-          <cell r="O58" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Range-Experiment Setup"/>
       <sheetName val="DataFormatted"/>
@@ -8466,46 +7814,46 @@
   <tableColumns count="16">
     <tableColumn id="10" xr3:uid="{5DF83658-BBE9-4CA3-887F-AF0543817C4E}" name="Experiment ID" dataDxfId="15"/>
     <tableColumn id="1" xr3:uid="{7307C11D-0632-40DD-A869-9A77464FF0EA}" name="Case" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{61DEEAED-F6C2-4D52-94C1-54D9C53E75E9}" name="Cell Max Charge Current (A)" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{61DEEAED-F6C2-4D52-94C1-54D9C53E75E9}" name="Cell Max Charge Current (A)" dataDxfId="13">
       <calculatedColumnFormula>_intermediate!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B02A6DFE-DF82-42A5-B376-F7F15CB73F05}" name="Cell Nominal Capacity (Ah)" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{B02A6DFE-DF82-42A5-B376-F7F15CB73F05}" name="Cell Nominal Capacity (Ah)" dataDxfId="12">
       <calculatedColumnFormula>_intermediate!C3/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BCD8DF4C-68FF-4377-846F-6565B5A641F3}" name="Cell Internal Resitance (Ω)" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{BCD8DF4C-68FF-4377-846F-6565B5A641F3}" name="Cell Internal Resitance (Ω)" dataDxfId="11">
       <calculatedColumnFormula>_intermediate!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DF85762C-1553-416C-9B51-C58A5EEB8B8F}" name="Cells in Parallel" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{DF85762C-1553-416C-9B51-C58A5EEB8B8F}" name="Cells in Parallel" dataDxfId="10">
       <calculatedColumnFormula>_intermediate!E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5D65F1C4-B79D-44C3-89AC-CED1ED4CF389}" name="Charge Time (min)" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{5D65F1C4-B79D-44C3-89AC-CED1ED4CF389}" name="Charge Time (min)" dataDxfId="9">
       <calculatedColumnFormula>_intermediate!J3/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16591C48-6ED5-40DE-8534-DB0858551527}" name="Charging Losses (Wh)" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{16591C48-6ED5-40DE-8534-DB0858551527}" name="Charging Losses (Wh)" dataDxfId="8">
       <calculatedColumnFormula>_intermediate!K3/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA727FD8-1EEE-43B7-AB78-E7CBD636EFA4}" name="Histogram" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{EA727FD8-1EEE-43B7-AB78-E7CBD636EFA4}" name="Histogram" dataDxfId="7">
       <calculatedColumnFormula array="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73DD56A8-11C0-4909-A743-1E0E68DDE2E5}" name="Scatter X" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{73DD56A8-11C0-4909-A743-1E0E68DDE2E5}" name="Scatter X" dataDxfId="6">
       <calculatedColumnFormula array="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2E37EFFE-BF6E-4811-927C-F0DADD6C6F47}" name="Scatter Y" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{2E37EFFE-BF6E-4811-927C-F0DADD6C6F47}" name="Scatter Y" dataDxfId="5">
       <calculatedColumnFormula array="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4BE4D0E2-AAD0-4C74-8B72-AB6674B2276F}" name="Objective 1" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{4BE4D0E2-AAD0-4C74-8B72-AB6674B2276F}" name="Objective 1" dataDxfId="4">
       <calculatedColumnFormula array="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{091BCAB6-058F-4107-BA37-868D0F8C9A45}" name="Objective 2" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{091BCAB6-058F-4107-BA37-868D0F8C9A45}" name="Objective 2" dataDxfId="3">
       <calculatedColumnFormula array="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6C5B9EDF-238B-4C84-92A1-97C517F11125}" name="Objective 1 (Plot)" dataDxfId="8">
+    <tableColumn id="16" xr3:uid="{6C5B9EDF-238B-4C84-92A1-97C517F11125}" name="Objective 1 (Plot)" dataDxfId="2">
       <calculatedColumnFormula>Table44[[#This Row],[Objective 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3B25C199-90C1-476B-ADA5-A903C80308E6}" name="Objective 2 (Plot)" dataDxfId="7">
+    <tableColumn id="15" xr3:uid="{3B25C199-90C1-476B-ADA5-A903C80308E6}" name="Objective 2 (Plot)" dataDxfId="1">
       <calculatedColumnFormula>IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E5EA9B4B-FB14-4283-82B0-D05B64ADB622}" name="Efficient?" dataDxfId="6">
+    <tableColumn id="14" xr3:uid="{E5EA9B4B-FB14-4283-82B0-D05B64ADB622}" name="Efficient?" dataDxfId="0">
       <calculatedColumnFormula>IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8843,28 +8191,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C44"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8872,7 +8221,7 @@
     </row>
     <row r="4" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -8880,145 +8229,119 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="8" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="9" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="72"/>
+    </row>
+    <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="74"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="75"/>
+      <c r="D31" s="76"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="42" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{73B9D9E7-518E-44C0-BC92-0CBBADAE0C5B}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{7A680350-9DFB-486E-858D-98AD2EC5FAF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -9029,1069 +8352,1063 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="8.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>29</v>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="15"/>
+      <c r="B4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="J13" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="K13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="L13" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="M13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="N13" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="P13" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="Q13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="R13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="S13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="T13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="U13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="V13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>81</v>
+      <c r="W13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <v>0</v>
+      </c>
+      <c r="V14" s="20">
+        <v>0</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
+      <c r="X14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="F15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="G15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="H15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="I15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="J15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="K15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="L15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="M15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="N15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="O15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="P15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="R15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="S15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="T15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="U15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="V15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="W15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="X15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="Z15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="AA15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="AB15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="AC15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="AD15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="AE15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="AF15" s="20">
+        <v>6900</v>
+      </c>
+      <c r="AG15" s="20">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0</v>
-      </c>
-      <c r="P14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21">
-        <v>0</v>
-      </c>
-      <c r="T14" s="21">
-        <v>0</v>
-      </c>
-      <c r="U14" s="21">
-        <v>0</v>
-      </c>
-      <c r="V14" s="21">
-        <v>0</v>
-      </c>
-      <c r="W14" s="21">
-        <v>0</v>
-      </c>
-      <c r="X14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="X17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="E15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="F15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="G15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="H15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="I15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="J15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="K15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="L15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="M15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="N15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="O15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="P15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="R15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="S15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="T15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="U15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="V15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="W15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="X15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="Y15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="Z15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="AA15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="AB15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="AC15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="AD15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="AE15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="AF15" s="21">
-        <v>6900</v>
-      </c>
-      <c r="AG15" s="21">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="Y17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF17" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG17" s="14" t="s">
-        <v>81</v>
+      <c r="Z17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="21">
+        <v>56</v>
+      </c>
+      <c r="D18" s="20">
         <v>14</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>8</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>10</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>14</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>10</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <v>2</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <v>14</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <v>8</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="20">
         <v>14</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="20">
         <v>15</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <v>6</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <v>17</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>8</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <v>20</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <v>17</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="20">
         <v>9</v>
       </c>
-      <c r="U18" s="21">
+      <c r="U18" s="20">
         <v>12</v>
       </c>
-      <c r="V18" s="21">
+      <c r="V18" s="20">
         <v>12</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="20">
         <v>10</v>
       </c>
-      <c r="X18" s="21">
+      <c r="X18" s="20">
         <v>15</v>
       </c>
-      <c r="Y18" s="21">
+      <c r="Y18" s="20">
         <v>9</v>
       </c>
-      <c r="Z18" s="21">
+      <c r="Z18" s="20">
         <v>18</v>
       </c>
-      <c r="AA18" s="21">
+      <c r="AA18" s="20">
         <v>12</v>
       </c>
-      <c r="AB18" s="21">
+      <c r="AB18" s="20">
         <v>14</v>
       </c>
-      <c r="AC18" s="21">
+      <c r="AC18" s="20">
         <v>10</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AD18" s="20">
         <v>13</v>
       </c>
-      <c r="AE18" s="21">
+      <c r="AE18" s="20">
         <v>6</v>
       </c>
-      <c r="AF18" s="21">
+      <c r="AF18" s="20">
         <v>4</v>
       </c>
-      <c r="AG18" s="21">
+      <c r="AG18" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="21">
+        <v>57</v>
+      </c>
+      <c r="D19" s="20">
         <v>10874.778879716976</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>6842.6427910975108</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>18834.248824157257</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>35453.330567962541</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>4666.3323752558917</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>17294.95430263054</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <v>12886.609063526319</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>12311.319422026672</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <v>22837.963492171282</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="20">
         <v>14276.154095939617</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="20">
         <v>6864.3941584597287</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>8321.8431059766863</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <v>18803.510436460288</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <v>26323.682432734437</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="20">
         <v>30729.820203294996</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>24210.723993590542</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="20">
         <v>12841.311012743005</v>
       </c>
-      <c r="U19" s="21">
+      <c r="U19" s="20">
         <v>21696.21446904229</v>
       </c>
-      <c r="V19" s="21">
+      <c r="V19" s="20">
         <v>18031.568516379302</v>
       </c>
-      <c r="W19" s="21">
+      <c r="W19" s="20">
         <v>6568.2653564529473</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19" s="20">
         <v>28215.011964639896</v>
       </c>
-      <c r="Y19" s="21">
+      <c r="Y19" s="20">
         <v>5642.3913274550541</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19" s="20">
         <v>4877.4408050912907</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AA19" s="20">
         <v>19564.248013935419</v>
       </c>
-      <c r="AB19" s="21">
+      <c r="AB19" s="20">
         <v>12201.706266521365</v>
       </c>
-      <c r="AC19" s="21">
+      <c r="AC19" s="20">
         <v>6530.7334225304194</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD19" s="20">
         <v>11250.202699884709</v>
       </c>
-      <c r="AE19" s="21">
+      <c r="AE19" s="20">
         <v>11348.40424433308</v>
       </c>
-      <c r="AF19" s="21">
+      <c r="AF19" s="20">
         <v>12917.4612425011</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AG19" s="20">
         <v>27815.771767919399</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="21">
+        <v>58</v>
+      </c>
+      <c r="D20" s="20">
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>0.26666666666666666</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="20">
         <v>0.26666666666666666</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="20">
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="20">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="20">
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="20">
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="20">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="20">
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="20">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="20">
         <v>5.9259259259259262E-2</v>
       </c>
-      <c r="U20" s="21">
+      <c r="U20" s="20">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="V20" s="21">
+      <c r="V20" s="20">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="W20" s="21">
+      <c r="W20" s="20">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="X20" s="21">
+      <c r="X20" s="20">
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y20" s="20">
         <v>5.9259259259259262E-2</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="20">
         <v>2.9629629629629631E-2</v>
       </c>
-      <c r="AA20" s="21">
+      <c r="AA20" s="20">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="AB20" s="21">
+      <c r="AB20" s="20">
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="AC20" s="21">
+      <c r="AC20" s="20">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AD20" s="20">
         <v>4.1025641025641026E-2</v>
       </c>
-      <c r="AE20" s="21">
+      <c r="AE20" s="20">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="AF20" s="21">
+      <c r="AF20" s="20">
         <v>0.13333333333333333</v>
       </c>
-      <c r="AG20" s="21">
+      <c r="AG20" s="20">
         <v>4.8484848484848492E-2</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="21">
+        <v>59</v>
+      </c>
+      <c r="D21" s="20">
         <v>47</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>75</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>27</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>15</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>110</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>30</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="20">
         <v>40</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="20">
         <v>42</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="20">
         <v>23</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="20">
         <v>36</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="20">
         <v>75</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="20">
         <v>62</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="20">
         <v>27</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="20">
         <v>20</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="20">
         <v>17</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="20">
         <v>21</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="20">
         <v>40</v>
       </c>
-      <c r="U21" s="21">
+      <c r="U21" s="20">
         <v>24</v>
       </c>
-      <c r="V21" s="21">
+      <c r="V21" s="20">
         <v>29</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W21" s="20">
         <v>78</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="20">
         <v>18</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="20">
         <v>91</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="20">
         <v>106</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA21" s="20">
         <v>26</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB21" s="20">
         <v>42</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC21" s="20">
         <v>79</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AD21" s="20">
         <v>46</v>
       </c>
-      <c r="AE21" s="21">
+      <c r="AE21" s="20">
         <v>45</v>
       </c>
-      <c r="AF21" s="21">
+      <c r="AF21" s="20">
         <v>40</v>
       </c>
-      <c r="AG21" s="21">
+      <c r="AG21" s="20">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
+      <c r="A23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
     </row>
     <row r="24" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="14" t="s">
+      <c r="AB25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG25" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="25"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U25" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="X25" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y25" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB25" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF25" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG25" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="27"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="22"/>
     </row>
     <row r="29" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>50</v>
+      <c r="B29" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>51</v>
+      <c r="B30" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -10125,8 +9442,8 @@
       <c r="AG30"/>
     </row>
     <row r="31" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>52</v>
+      <c r="B31" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -10160,8 +9477,8 @@
       <c r="AG31"/>
     </row>
     <row r="32" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>53</v>
+      <c r="B32" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -10195,8 +9512,8 @@
       <c r="AG32"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>54</v>
+      <c r="B33" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -10230,8 +9547,8 @@
       <c r="AG33"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>55</v>
+      <c r="B34" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -10265,8 +9582,8 @@
       <c r="AG34"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>56</v>
+      <c r="B35" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -10301,12 +9618,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://jhmi-staging.modelon.com/hub/user-redirect/impact/customizations/workspace_management/index.html?share=eyJkZWZpbml0aW9uIjp7Im5hbWUiOiJFeGNlbERlbW8iLCJkZXNjcmlwdGlvbiI6IiIsImRlZmF1bHRQcm9qZWN0SWQiOiJmMjJjYWUzOGIyMDhhM2EyZmEyNDNkN2UxODMzNDA3ODQyMTQ3OGQ3IiwicHJvamVjdHMiOlt7InJlZmVyZW5jZSI6eyJpZCI6ImYyMmNhZTM4YjIwOGEzYTJmYTI0M2Q3ZTE4MzM0MDc4NDIxNDc4ZDciLCJ2Y3NVcmkiOiJnaXQraHR0cHM6Ly9naXRsYWIubW9kZWxvbi5jb20vbW9kZWxvbi1wcm9kdWN0cy9wZC1kZXYvZXhjZWxleGFtcGxlc0BtYWluIn0sImRpc2FibGVkIjpmYWxzZSwiZGlzYWJsZWRDb250ZW50IjpbXX1dLCJkZXBlbmRlbmNpZXMiOlt7InJlZmVyZW5jZSI6eyJpZCI6ImZlYzQzZjc3OTI1OTQ5YmQ3ZTdjMGYxMGFjNDllYmMxMTg5ZGM4NDAiLCJuYW1lIjoiTW9kZWxpY2EiLCJ2ZXJzaW9uIjoiMy4yLjMifSwiZGlzYWJsZWQiOnRydWUsImRpc2FibGVkQ29udGVudCI6W119LHsicmVmZXJlbmNlIjp7ImlkIjoiYWMwNGE1ZGE5N2JjMmUxMWJmZmI3ZjQxYjI0ODVkYTM0Nzg0NmRmNiIsIm5hbWUiOiJNb2RlbGljYSIsInZlcnNpb24iOiI0LjAuMCJ9LCJkaXNhYmxlZCI6ZmFsc2UsImRpc2FibGVkQ29udGVudCI6W119LHsicmVmZXJlbmNlIjp7ImlkIjoiYzU2OWYwMzA0ZmFmNGEzNTBlNTIyNjAzYjQ1NDQ3NDBmOWEzMmI5ZSIsIm5hbWUiOiJNb2RlbG9uIiwidmVyc2lvbiI6IjQuMy4wK2J1aWxkLjE4In0sImRpc2FibGVkIjpmYWxzZSwiZGlzYWJsZWRDb250ZW50IjpbXX0seyJyZWZlcmVuY2UiOnsiaWQiOiJhYmJhNTc5MmUxMjhkZWY5YzkxNWJiNzc0MGQ4MDE0YjhhYTczZDgzIiwibmFtZSI6IkVsZWN0cmlmaWNhdGlvbiIsInZlcnNpb24iOiIxLjEwLjArYnVpbGQuMjIifSwiZGlzYWJsZWQiOmZhbHNlLCJkaXNhYmxlZENvbnRlbnQiOltdfV0sImZvcm1hdCI6IjEuMC4wIiwiZ3VpZCI6ImYzMTk3ZGEyMDE4ZjRhNTdiN2VlZWZiMWM2MjFmYWEwIiwiY3JlYXRlZEJ5IjoiYWViMTE3MWEtNTRkOC00MzFhLWJlMWItMDc4YjM1Zjc1NTc0IiwiY3JlYXRlZEF0IjoxNjg1NTI1OTA2ODIwfX0=" xr:uid="{71F58DEF-7759-4CD9-84A0-8E0C3427206C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11463,2488 +10777,2488 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="25" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="30"/>
-    <col min="23" max="24" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="9.140625" style="30"/>
-    <col min="34" max="34" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="19.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="9.140625" style="27"/>
+    <col min="23" max="24" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="33" width="9.140625" style="27"/>
+    <col min="34" max="34" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
+      <c r="A1" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
+      <c r="A2" s="28"/>
       <c r="B2"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
+      <c r="A3" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
+      <c r="A4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
+      <c r="A5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
+      <c r="A6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
+      <c r="A7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
+      <c r="A8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="32"/>
-      <c r="D9" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="37" t="str">
+      <c r="C9" s="29"/>
+      <c r="D9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="88" t="str">
         <f>_xlfn.CONCAT(B5," vs. ",B4)</f>
         <v>Cell Internal Resitance (Ω) vs. Cell Nominal Capacity (Ah)</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="32"/>
-      <c r="D10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="39" t="str">
+      <c r="C10" s="29"/>
+      <c r="D10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="89" t="str">
         <f>_xlfn.CONCAT(B8)</f>
         <v>Cell Max Charge Current (A)</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
+      <c r="A12" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
     </row>
     <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
     </row>
     <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
+      <c r="A27" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="J28" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="N28" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="O28" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" s="65" t="s">
-        <v>117</v>
+      <c r="A28" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46">
         <v>1</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="47">
         <f>_intermediate!B3</f>
         <v>14</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="48">
         <f>_intermediate!C3/3600</f>
         <v>3.0207719110324933</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="49">
         <f>_intermediate!D3</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="50">
         <f>_intermediate!E3</f>
         <v>47</v>
       </c>
-      <c r="G29" s="72">
+      <c r="G29" s="51">
         <f>_intermediate!J3/60</f>
         <v>0</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="52">
         <f>_intermediate!K3/3600</f>
         <v>0</v>
       </c>
-      <c r="I29" s="74" cm="1">
+      <c r="I29" s="53" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>14</v>
       </c>
-      <c r="J29" s="74" cm="1">
+      <c r="J29" s="53" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.0207719110324933</v>
       </c>
-      <c r="K29" s="74" cm="1">
+      <c r="K29" s="53" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="L29" s="75" cm="1">
+      <c r="L29" s="54" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M29" s="75" cm="1">
+      <c r="M29" s="54" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N29" s="76">
+      <c r="N29" s="55">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O29" s="75">
+      <c r="O29" s="54">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P29" s="77" t="b">
+      <c r="P29" s="56" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58">
         <v>2</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="59">
         <f>_intermediate!B4</f>
         <v>8</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="59">
         <f>_intermediate!C4/3600</f>
         <v>1.9007341086381975</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="60">
         <f>_intermediate!D4</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="61">
         <f>_intermediate!E4</f>
         <v>75</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="62">
         <f>_intermediate!J4/60</f>
         <v>0</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="63">
         <f>_intermediate!K4/3600</f>
         <v>0</v>
       </c>
-      <c r="I30" s="85" cm="1">
+      <c r="I30" s="64" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>8</v>
       </c>
-      <c r="J30" s="85" cm="1">
+      <c r="J30" s="64" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>1.9007341086381975</v>
       </c>
-      <c r="K30" s="85" cm="1">
+      <c r="K30" s="64" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L30" s="86" cm="1">
+      <c r="L30" s="65" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M30" s="86" cm="1">
+      <c r="M30" s="65" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N30" s="87">
+      <c r="N30" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O30" s="86">
+      <c r="O30" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P30" s="88" t="b">
+      <c r="P30" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58">
         <v>3</v>
       </c>
-      <c r="C31" s="80">
+      <c r="C31" s="59">
         <f>_intermediate!B5</f>
         <v>2</v>
       </c>
-      <c r="D31" s="80">
+      <c r="D31" s="59">
         <f>_intermediate!C5/3600</f>
         <v>5.2317357844881274</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="60">
         <f>_intermediate!D5</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="61">
         <f>_intermediate!E5</f>
         <v>27</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G31" s="62">
         <f>_intermediate!J5/60</f>
         <v>0</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="63">
         <f>_intermediate!K5/3600</f>
         <v>0</v>
       </c>
-      <c r="I31" s="85" cm="1">
+      <c r="I31" s="64" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>2</v>
       </c>
-      <c r="J31" s="85" cm="1">
+      <c r="J31" s="64" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>5.2317357844881274</v>
       </c>
-      <c r="K31" s="85" cm="1">
+      <c r="K31" s="64" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="L31" s="86" cm="1">
+      <c r="L31" s="65" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M31" s="86" cm="1">
+      <c r="M31" s="65" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N31" s="87">
+      <c r="N31" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O31" s="86">
+      <c r="O31" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P31" s="88" t="b">
+      <c r="P31" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58">
         <v>4</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="59">
         <f>_intermediate!B6</f>
         <v>10</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D32" s="59">
         <f>_intermediate!C6/3600</f>
         <v>9.8481473799895944</v>
       </c>
-      <c r="E32" s="81">
+      <c r="E32" s="60">
         <f>_intermediate!D6</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="61">
         <f>_intermediate!E6</f>
         <v>15</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="62">
         <f>_intermediate!J6/60</f>
         <v>0</v>
       </c>
-      <c r="H32" s="84">
+      <c r="H32" s="63">
         <f>_intermediate!K6/3600</f>
         <v>0</v>
       </c>
-      <c r="I32" s="85" cm="1">
+      <c r="I32" s="64" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>10</v>
       </c>
-      <c r="J32" s="85" cm="1">
+      <c r="J32" s="64" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>9.8481473799895944</v>
       </c>
-      <c r="K32" s="85" cm="1">
+      <c r="K32" s="64" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="L32" s="86" cm="1">
+      <c r="L32" s="65" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M32" s="86" cm="1">
+      <c r="M32" s="65" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N32" s="87">
+      <c r="N32" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O32" s="86">
+      <c r="O32" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P32" s="88" t="b">
+      <c r="P32" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79">
+      <c r="A33" s="57"/>
+      <c r="B33" s="58">
         <v>5</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="59">
         <f>_intermediate!B7</f>
         <v>14</v>
       </c>
-      <c r="D33" s="80">
+      <c r="D33" s="59">
         <f>_intermediate!C7/3600</f>
         <v>1.2962034375710811</v>
       </c>
-      <c r="E33" s="81">
+      <c r="E33" s="60">
         <f>_intermediate!D7</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="61">
         <f>_intermediate!E7</f>
         <v>110</v>
       </c>
-      <c r="G33" s="83">
+      <c r="G33" s="62">
         <f>_intermediate!J7/60</f>
         <v>0</v>
       </c>
-      <c r="H33" s="84">
+      <c r="H33" s="63">
         <f>_intermediate!K7/3600</f>
         <v>0</v>
       </c>
-      <c r="I33" s="85" cm="1">
+      <c r="I33" s="64" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>14</v>
       </c>
-      <c r="J33" s="85" cm="1">
+      <c r="J33" s="64" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>1.2962034375710811</v>
       </c>
-      <c r="K33" s="85" cm="1">
+      <c r="K33" s="64" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="L33" s="86" cm="1">
+      <c r="L33" s="65" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M33" s="86" cm="1">
+      <c r="M33" s="65" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N33" s="87">
+      <c r="N33" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O33" s="86">
+      <c r="O33" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P33" s="88" t="b">
+      <c r="P33" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79">
+      <c r="A34" s="57"/>
+      <c r="B34" s="58">
         <v>6</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="59">
         <f>_intermediate!B8</f>
         <v>10</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="59">
         <f>_intermediate!C8/3600</f>
         <v>4.8041539729529275</v>
       </c>
-      <c r="E34" s="81">
+      <c r="E34" s="60">
         <f>_intermediate!D8</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="61">
         <f>_intermediate!E8</f>
         <v>30</v>
       </c>
-      <c r="G34" s="83">
+      <c r="G34" s="62">
         <f>_intermediate!J8/60</f>
         <v>0</v>
       </c>
-      <c r="H34" s="84">
+      <c r="H34" s="63">
         <f>_intermediate!K8/3600</f>
         <v>0</v>
       </c>
-      <c r="I34" s="85" cm="1">
+      <c r="I34" s="64" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>10</v>
       </c>
-      <c r="J34" s="85" cm="1">
+      <c r="J34" s="64" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>4.8041539729529275</v>
       </c>
-      <c r="K34" s="85" cm="1">
+      <c r="K34" s="64" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="L34" s="86" cm="1">
+      <c r="L34" s="65" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M34" s="86" cm="1">
+      <c r="M34" s="65" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N34" s="87">
+      <c r="N34" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O34" s="86">
+      <c r="O34" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P34" s="88" t="b">
+      <c r="P34" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79">
+      <c r="A35" s="57"/>
+      <c r="B35" s="58">
         <v>7</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="59">
         <f>_intermediate!B9</f>
         <v>2</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="59">
         <f>_intermediate!C9/3600</f>
         <v>3.5796136287573108</v>
       </c>
-      <c r="E35" s="81">
+      <c r="E35" s="60">
         <f>_intermediate!D9</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="61">
         <f>_intermediate!E9</f>
         <v>40</v>
       </c>
-      <c r="G35" s="83">
+      <c r="G35" s="62">
         <f>_intermediate!J9/60</f>
         <v>0</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="63">
         <f>_intermediate!K9/3600</f>
         <v>0</v>
       </c>
-      <c r="I35" s="89" cm="1">
+      <c r="I35" s="68" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>2</v>
       </c>
-      <c r="J35" s="90" cm="1">
+      <c r="J35" s="69" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.5796136287573108</v>
       </c>
-      <c r="K35" s="91" cm="1">
+      <c r="K35" s="70" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="L35" s="92" cm="1">
+      <c r="L35" s="71" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M35" s="86" cm="1">
+      <c r="M35" s="65" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N35" s="87">
+      <c r="N35" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O35" s="86">
+      <c r="O35" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P35" s="88" t="b">
+      <c r="P35" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79">
+      <c r="A36" s="57"/>
+      <c r="B36" s="58">
         <v>8</v>
       </c>
-      <c r="C36" s="80">
+      <c r="C36" s="59">
         <f>_intermediate!B10</f>
         <v>14</v>
       </c>
-      <c r="D36" s="80">
+      <c r="D36" s="59">
         <f>_intermediate!C10/3600</f>
         <v>3.4198109505629644</v>
       </c>
-      <c r="E36" s="81">
+      <c r="E36" s="60">
         <f>_intermediate!D10</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="F36" s="82">
+      <c r="F36" s="61">
         <f>_intermediate!E10</f>
         <v>42</v>
       </c>
-      <c r="G36" s="83">
+      <c r="G36" s="62">
         <f>_intermediate!J10/60</f>
         <v>0</v>
       </c>
-      <c r="H36" s="84">
+      <c r="H36" s="63">
         <f>_intermediate!K10/3600</f>
         <v>0</v>
       </c>
-      <c r="I36" s="89" cm="1">
+      <c r="I36" s="68" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>14</v>
       </c>
-      <c r="J36" s="90" cm="1">
+      <c r="J36" s="69" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.4198109505629644</v>
       </c>
-      <c r="K36" s="91" cm="1">
+      <c r="K36" s="70" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="L36" s="92" cm="1">
+      <c r="L36" s="71" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M36" s="86" cm="1">
+      <c r="M36" s="65" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N36" s="87">
+      <c r="N36" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O36" s="86">
+      <c r="O36" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P36" s="88" t="b">
+      <c r="P36" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79">
+      <c r="A37" s="57"/>
+      <c r="B37" s="58">
         <v>9</v>
       </c>
-      <c r="C37" s="80">
+      <c r="C37" s="59">
         <f>_intermediate!B11</f>
         <v>8</v>
       </c>
-      <c r="D37" s="80">
+      <c r="D37" s="59">
         <f>_intermediate!C11/3600</f>
         <v>6.3438787478253564</v>
       </c>
-      <c r="E37" s="81">
+      <c r="E37" s="60">
         <f>_intermediate!D11</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="61">
         <f>_intermediate!E11</f>
         <v>23</v>
       </c>
-      <c r="G37" s="83">
+      <c r="G37" s="62">
         <f>_intermediate!J11/60</f>
         <v>0</v>
       </c>
-      <c r="H37" s="84">
+      <c r="H37" s="63">
         <f>_intermediate!K11/3600</f>
         <v>0</v>
       </c>
-      <c r="I37" s="89" cm="1">
+      <c r="I37" s="68" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>8</v>
       </c>
-      <c r="J37" s="90" cm="1">
+      <c r="J37" s="69" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>6.3438787478253564</v>
       </c>
-      <c r="K37" s="91" cm="1">
+      <c r="K37" s="70" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L37" s="92" cm="1">
+      <c r="L37" s="71" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M37" s="86" cm="1">
+      <c r="M37" s="65" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N37" s="87">
+      <c r="N37" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O37" s="86">
+      <c r="O37" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P37" s="88" t="b">
+      <c r="P37" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79">
+      <c r="A38" s="57"/>
+      <c r="B38" s="58">
         <v>10</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38" s="59">
         <f>_intermediate!B12</f>
         <v>14</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38" s="59">
         <f>_intermediate!C12/3600</f>
         <v>3.9655983599832267</v>
       </c>
-      <c r="E38" s="81">
+      <c r="E38" s="60">
         <f>_intermediate!D12</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="61">
         <f>_intermediate!E12</f>
         <v>36</v>
       </c>
-      <c r="G38" s="83">
+      <c r="G38" s="62">
         <f>_intermediate!J12/60</f>
         <v>0</v>
       </c>
-      <c r="H38" s="84">
+      <c r="H38" s="63">
         <f>_intermediate!K12/3600</f>
         <v>0</v>
       </c>
-      <c r="I38" s="89" cm="1">
+      <c r="I38" s="68" cm="1">
         <f t="array" aca="1" ref="I38" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>14</v>
       </c>
-      <c r="J38" s="90" cm="1">
+      <c r="J38" s="69" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.9655983599832267</v>
       </c>
-      <c r="K38" s="91" cm="1">
+      <c r="K38" s="70" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="L38" s="92" cm="1">
+      <c r="L38" s="71" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M38" s="86" cm="1">
+      <c r="M38" s="65" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N38" s="87">
+      <c r="N38" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O38" s="86">
+      <c r="O38" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P38" s="88" t="b">
+      <c r="P38" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79">
+      <c r="A39" s="57"/>
+      <c r="B39" s="58">
         <v>11</v>
       </c>
-      <c r="C39" s="80">
+      <c r="C39" s="59">
         <f>_intermediate!B13</f>
         <v>15</v>
       </c>
-      <c r="D39" s="80">
+      <c r="D39" s="59">
         <f>_intermediate!C13/3600</f>
         <v>1.9067761551277025</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="60">
         <f>_intermediate!D13</f>
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="61">
         <f>_intermediate!E13</f>
         <v>75</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="62">
         <f>_intermediate!J13/60</f>
         <v>0</v>
       </c>
-      <c r="H39" s="84">
+      <c r="H39" s="63">
         <f>_intermediate!K13/3600</f>
         <v>0</v>
       </c>
-      <c r="I39" s="89" cm="1">
+      <c r="I39" s="68" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>15</v>
       </c>
-      <c r="J39" s="90" cm="1">
+      <c r="J39" s="69" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>1.9067761551277025</v>
       </c>
-      <c r="K39" s="91" cm="1">
+      <c r="K39" s="70" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="L39" s="92" cm="1">
+      <c r="L39" s="71" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M39" s="86" cm="1">
+      <c r="M39" s="65" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N39" s="87">
+      <c r="N39" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O39" s="86">
+      <c r="O39" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P39" s="88" t="b">
+      <c r="P39" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79">
+      <c r="A40" s="57"/>
+      <c r="B40" s="58">
         <v>12</v>
       </c>
-      <c r="C40" s="80">
+      <c r="C40" s="59">
         <f>_intermediate!B14</f>
         <v>6</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="59">
         <f>_intermediate!C14/3600</f>
         <v>2.3116230849935238</v>
       </c>
-      <c r="E40" s="81">
+      <c r="E40" s="60">
         <f>_intermediate!D14</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="F40" s="82">
+      <c r="F40" s="61">
         <f>_intermediate!E14</f>
         <v>62</v>
       </c>
-      <c r="G40" s="83">
+      <c r="G40" s="62">
         <f>_intermediate!J14/60</f>
         <v>0</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="63">
         <f>_intermediate!K14/3600</f>
         <v>0</v>
       </c>
-      <c r="I40" s="89" cm="1">
+      <c r="I40" s="68" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>6</v>
       </c>
-      <c r="J40" s="90" cm="1">
+      <c r="J40" s="69" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>2.3116230849935238</v>
       </c>
-      <c r="K40" s="91" cm="1">
+      <c r="K40" s="70" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="L40" s="92" cm="1">
+      <c r="L40" s="71" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M40" s="86" cm="1">
+      <c r="M40" s="65" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N40" s="87">
+      <c r="N40" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O40" s="86">
+      <c r="O40" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P40" s="88" t="b">
+      <c r="P40" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79">
+      <c r="A41" s="57"/>
+      <c r="B41" s="58">
         <v>13</v>
       </c>
-      <c r="C41" s="80">
+      <c r="C41" s="59">
         <f>_intermediate!B15</f>
         <v>17</v>
       </c>
-      <c r="D41" s="80">
+      <c r="D41" s="59">
         <f>_intermediate!C15/3600</f>
         <v>5.2231973434611909</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E41" s="60">
         <f>_intermediate!D15</f>
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="61">
         <f>_intermediate!E15</f>
         <v>27</v>
       </c>
-      <c r="G41" s="83">
+      <c r="G41" s="62">
         <f>_intermediate!J15/60</f>
         <v>0</v>
       </c>
-      <c r="H41" s="84">
+      <c r="H41" s="63">
         <f>_intermediate!K15/3600</f>
         <v>0</v>
       </c>
-      <c r="I41" s="89" cm="1">
+      <c r="I41" s="68" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>17</v>
       </c>
-      <c r="J41" s="90" cm="1">
+      <c r="J41" s="69" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>5.2231973434611909</v>
       </c>
-      <c r="K41" s="91" cm="1">
+      <c r="K41" s="70" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="L41" s="92" cm="1">
+      <c r="L41" s="71" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M41" s="86" cm="1">
+      <c r="M41" s="65" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N41" s="87">
+      <c r="N41" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O41" s="86">
+      <c r="O41" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P41" s="88" t="b">
+      <c r="P41" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58">
         <v>14</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42" s="59">
         <f>_intermediate!B16</f>
         <v>8</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="59">
         <f>_intermediate!C16/3600</f>
         <v>7.3121340090928992</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="60">
         <f>_intermediate!D16</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F42" s="82">
+      <c r="F42" s="61">
         <f>_intermediate!E16</f>
         <v>20</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="62">
         <f>_intermediate!J16/60</f>
         <v>0</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="63">
         <f>_intermediate!K16/3600</f>
         <v>0</v>
       </c>
-      <c r="I42" s="89" cm="1">
+      <c r="I42" s="68" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>8</v>
       </c>
-      <c r="J42" s="90" cm="1">
+      <c r="J42" s="69" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>7.3121340090928992</v>
       </c>
-      <c r="K42" s="91" cm="1">
+      <c r="K42" s="70" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L42" s="92" cm="1">
+      <c r="L42" s="71" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M42" s="86" cm="1">
+      <c r="M42" s="65" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N42" s="87">
+      <c r="N42" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O42" s="86">
+      <c r="O42" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P42" s="88" t="b">
+      <c r="P42" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
-      <c r="B43" s="79">
+      <c r="A43" s="57"/>
+      <c r="B43" s="58">
         <v>15</v>
       </c>
-      <c r="C43" s="80">
+      <c r="C43" s="59">
         <f>_intermediate!B17</f>
         <v>20</v>
       </c>
-      <c r="D43" s="80">
+      <c r="D43" s="59">
         <f>_intermediate!C17/3600</f>
         <v>8.5360611675819431</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="60">
         <f>_intermediate!D17</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="F43" s="82">
+      <c r="F43" s="61">
         <f>_intermediate!E17</f>
         <v>17</v>
       </c>
-      <c r="G43" s="83">
+      <c r="G43" s="62">
         <f>_intermediate!J17/60</f>
         <v>0</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="63">
         <f>_intermediate!K17/3600</f>
         <v>0</v>
       </c>
-      <c r="I43" s="89" cm="1">
+      <c r="I43" s="68" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>20</v>
       </c>
-      <c r="J43" s="90" cm="1">
+      <c r="J43" s="69" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>8.5360611675819431</v>
       </c>
-      <c r="K43" s="91" cm="1">
+      <c r="K43" s="70" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="L43" s="92" cm="1">
+      <c r="L43" s="71" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M43" s="86" cm="1">
+      <c r="M43" s="65" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N43" s="87">
+      <c r="N43" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O43" s="86">
+      <c r="O43" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P43" s="88" t="b">
+      <c r="P43" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79">
+      <c r="A44" s="57"/>
+      <c r="B44" s="58">
         <v>16</v>
       </c>
-      <c r="C44" s="80">
+      <c r="C44" s="59">
         <f>_intermediate!B18</f>
         <v>17</v>
       </c>
-      <c r="D44" s="80">
+      <c r="D44" s="59">
         <f>_intermediate!C18/3600</f>
         <v>6.7252011093307065</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E44" s="60">
         <f>_intermediate!D18</f>
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="F44" s="82">
+      <c r="F44" s="61">
         <f>_intermediate!E18</f>
         <v>21</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G44" s="62">
         <f>_intermediate!J18/60</f>
         <v>0</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="63">
         <f>_intermediate!K18/3600</f>
         <v>0</v>
       </c>
-      <c r="I44" s="89" cm="1">
+      <c r="I44" s="68" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>17</v>
       </c>
-      <c r="J44" s="90" cm="1">
+      <c r="J44" s="69" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>6.7252011093307065</v>
       </c>
-      <c r="K44" s="91" cm="1">
+      <c r="K44" s="70" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="L44" s="92" cm="1">
+      <c r="L44" s="71" cm="1">
         <f t="array" aca="1" ref="L44" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M44" s="86" cm="1">
+      <c r="M44" s="65" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N44" s="87">
+      <c r="N44" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O44" s="86">
+      <c r="O44" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P44" s="88" t="b">
+      <c r="P44" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58">
         <v>17</v>
       </c>
-      <c r="C45" s="80">
+      <c r="C45" s="59">
         <f>_intermediate!B19</f>
         <v>9</v>
       </c>
-      <c r="D45" s="80">
+      <c r="D45" s="59">
         <f>_intermediate!C19/3600</f>
         <v>3.567030836873057</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="60">
         <f>_intermediate!D19</f>
         <v>5.9259259259259262E-2</v>
       </c>
-      <c r="F45" s="82">
+      <c r="F45" s="61">
         <f>_intermediate!E19</f>
         <v>40</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="62">
         <f>_intermediate!J19/60</f>
         <v>0</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="63">
         <f>_intermediate!K19/3600</f>
         <v>0</v>
       </c>
-      <c r="I45" s="89" cm="1">
+      <c r="I45" s="68" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>9</v>
       </c>
-      <c r="J45" s="90" cm="1">
+      <c r="J45" s="69" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.567030836873057</v>
       </c>
-      <c r="K45" s="91" cm="1">
+      <c r="K45" s="70" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>5.9259259259259262E-2</v>
       </c>
-      <c r="L45" s="92" cm="1">
+      <c r="L45" s="71" cm="1">
         <f t="array" aca="1" ref="L45" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M45" s="86" cm="1">
+      <c r="M45" s="65" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N45" s="87">
+      <c r="N45" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O45" s="86">
+      <c r="O45" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P45" s="88" t="b">
+      <c r="P45" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
-      <c r="B46" s="79">
+      <c r="A46" s="57"/>
+      <c r="B46" s="58">
         <v>18</v>
       </c>
-      <c r="C46" s="80">
+      <c r="C46" s="59">
         <f>_intermediate!B20</f>
         <v>12</v>
       </c>
-      <c r="D46" s="80">
+      <c r="D46" s="59">
         <f>_intermediate!C20/3600</f>
         <v>6.0267262414006364</v>
       </c>
-      <c r="E46" s="81">
+      <c r="E46" s="60">
         <f>_intermediate!D20</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="F46" s="82">
+      <c r="F46" s="61">
         <f>_intermediate!E20</f>
         <v>24</v>
       </c>
-      <c r="G46" s="83">
+      <c r="G46" s="62">
         <f>_intermediate!J20/60</f>
         <v>0</v>
       </c>
-      <c r="H46" s="84">
+      <c r="H46" s="63">
         <f>_intermediate!K20/3600</f>
         <v>0</v>
       </c>
-      <c r="I46" s="89" cm="1">
+      <c r="I46" s="68" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>12</v>
       </c>
-      <c r="J46" s="90" cm="1">
+      <c r="J46" s="69" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>6.0267262414006364</v>
       </c>
-      <c r="K46" s="91" cm="1">
+      <c r="K46" s="70" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="L46" s="92" cm="1">
+      <c r="L46" s="71" cm="1">
         <f t="array" aca="1" ref="L46" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M46" s="86" cm="1">
+      <c r="M46" s="65" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N46" s="87">
+      <c r="N46" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O46" s="86">
+      <c r="O46" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P46" s="88" t="b">
+      <c r="P46" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
-      <c r="B47" s="79">
+      <c r="A47" s="57"/>
+      <c r="B47" s="58">
         <v>19</v>
       </c>
-      <c r="C47" s="80">
+      <c r="C47" s="59">
         <f>_intermediate!B21</f>
         <v>12</v>
       </c>
-      <c r="D47" s="80">
+      <c r="D47" s="59">
         <f>_intermediate!C21/3600</f>
         <v>5.0087690323275842</v>
       </c>
-      <c r="E47" s="81">
+      <c r="E47" s="60">
         <f>_intermediate!D21</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="F47" s="82">
+      <c r="F47" s="61">
         <f>_intermediate!E21</f>
         <v>29</v>
       </c>
-      <c r="G47" s="83">
+      <c r="G47" s="62">
         <f>_intermediate!J21/60</f>
         <v>0</v>
       </c>
-      <c r="H47" s="84">
+      <c r="H47" s="63">
         <f>_intermediate!K21/3600</f>
         <v>0</v>
       </c>
-      <c r="I47" s="89" cm="1">
+      <c r="I47" s="68" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>12</v>
       </c>
-      <c r="J47" s="90" cm="1">
+      <c r="J47" s="69" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>5.0087690323275842</v>
       </c>
-      <c r="K47" s="91" cm="1">
+      <c r="K47" s="70" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="L47" s="92" cm="1">
+      <c r="L47" s="71" cm="1">
         <f t="array" aca="1" ref="L47" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M47" s="86" cm="1">
+      <c r="M47" s="65" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N47" s="87">
+      <c r="N47" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O47" s="86">
+      <c r="O47" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P47" s="88" t="b">
+      <c r="P47" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79">
+      <c r="A48" s="57"/>
+      <c r="B48" s="58">
         <v>20</v>
       </c>
-      <c r="C48" s="80">
+      <c r="C48" s="59">
         <f>_intermediate!B22</f>
         <v>10</v>
       </c>
-      <c r="D48" s="80">
+      <c r="D48" s="59">
         <f>_intermediate!C22/3600</f>
         <v>1.8245181545702631</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="60">
         <f>_intermediate!D22</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="F48" s="82">
+      <c r="F48" s="61">
         <f>_intermediate!E22</f>
         <v>78</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="62">
         <f>_intermediate!J22/60</f>
         <v>0</v>
       </c>
-      <c r="H48" s="84">
+      <c r="H48" s="63">
         <f>_intermediate!K22/3600</f>
         <v>0</v>
       </c>
-      <c r="I48" s="89" cm="1">
+      <c r="I48" s="68" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>10</v>
       </c>
-      <c r="J48" s="90" cm="1">
+      <c r="J48" s="69" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>1.8245181545702631</v>
       </c>
-      <c r="K48" s="91" cm="1">
+      <c r="K48" s="70" cm="1">
         <f t="array" aca="1" ref="K48" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="L48" s="92" cm="1">
+      <c r="L48" s="71" cm="1">
         <f t="array" aca="1" ref="L48" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M48" s="86" cm="1">
+      <c r="M48" s="65" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N48" s="87">
+      <c r="N48" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O48" s="86">
+      <c r="O48" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P48" s="88" t="b">
+      <c r="P48" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79">
+      <c r="A49" s="57"/>
+      <c r="B49" s="58">
         <v>21</v>
       </c>
-      <c r="C49" s="80">
+      <c r="C49" s="59">
         <f>_intermediate!B23</f>
         <v>15</v>
       </c>
-      <c r="D49" s="80">
+      <c r="D49" s="59">
         <f>_intermediate!C23/3600</f>
         <v>7.8375033235110827</v>
       </c>
-      <c r="E49" s="81">
+      <c r="E49" s="60">
         <f>_intermediate!D23</f>
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="F49" s="82">
+      <c r="F49" s="61">
         <f>_intermediate!E23</f>
         <v>18</v>
       </c>
-      <c r="G49" s="83">
+      <c r="G49" s="62">
         <f>_intermediate!J23/60</f>
         <v>0</v>
       </c>
-      <c r="H49" s="84">
+      <c r="H49" s="63">
         <f>_intermediate!K23/3600</f>
         <v>0</v>
       </c>
-      <c r="I49" s="89" cm="1">
+      <c r="I49" s="68" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>15</v>
       </c>
-      <c r="J49" s="90" cm="1">
+      <c r="J49" s="69" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>7.8375033235110827</v>
       </c>
-      <c r="K49" s="91" cm="1">
+      <c r="K49" s="70" cm="1">
         <f t="array" aca="1" ref="K49" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="L49" s="92" cm="1">
+      <c r="L49" s="71" cm="1">
         <f t="array" aca="1" ref="L49" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M49" s="86" cm="1">
+      <c r="M49" s="65" cm="1">
         <f t="array" aca="1" ref="M49" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N49" s="87">
+      <c r="N49" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O49" s="86">
+      <c r="O49" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P49" s="88" t="b">
+      <c r="P49" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
-      <c r="B50" s="79">
+      <c r="A50" s="57"/>
+      <c r="B50" s="58">
         <v>22</v>
       </c>
-      <c r="C50" s="80">
+      <c r="C50" s="59">
         <f>_intermediate!B24</f>
         <v>9</v>
       </c>
-      <c r="D50" s="80">
+      <c r="D50" s="59">
         <f>_intermediate!C24/3600</f>
         <v>1.5673309242930706</v>
       </c>
-      <c r="E50" s="81">
+      <c r="E50" s="60">
         <f>_intermediate!D24</f>
         <v>5.9259259259259262E-2</v>
       </c>
-      <c r="F50" s="82">
+      <c r="F50" s="61">
         <f>_intermediate!E24</f>
         <v>91</v>
       </c>
-      <c r="G50" s="83">
+      <c r="G50" s="62">
         <f>_intermediate!J24/60</f>
         <v>0</v>
       </c>
-      <c r="H50" s="84">
+      <c r="H50" s="63">
         <f>_intermediate!K24/3600</f>
         <v>0</v>
       </c>
-      <c r="I50" s="89" cm="1">
+      <c r="I50" s="68" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>9</v>
       </c>
-      <c r="J50" s="90" cm="1">
+      <c r="J50" s="69" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>1.5673309242930706</v>
       </c>
-      <c r="K50" s="91" cm="1">
+      <c r="K50" s="70" cm="1">
         <f t="array" aca="1" ref="K50" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>5.9259259259259262E-2</v>
       </c>
-      <c r="L50" s="92" cm="1">
+      <c r="L50" s="71" cm="1">
         <f t="array" aca="1" ref="L50" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M50" s="86" cm="1">
+      <c r="M50" s="65" cm="1">
         <f t="array" aca="1" ref="M50" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N50" s="87">
+      <c r="N50" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O50" s="86">
+      <c r="O50" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P50" s="88" t="b">
+      <c r="P50" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
-      <c r="B51" s="79">
+      <c r="A51" s="57"/>
+      <c r="B51" s="58">
         <v>23</v>
       </c>
-      <c r="C51" s="80">
+      <c r="C51" s="59">
         <f>_intermediate!B25</f>
         <v>18</v>
       </c>
-      <c r="D51" s="80">
+      <c r="D51" s="59">
         <f>_intermediate!C25/3600</f>
         <v>1.3548446680809141</v>
       </c>
-      <c r="E51" s="81">
+      <c r="E51" s="60">
         <f>_intermediate!D25</f>
         <v>2.9629629629629631E-2</v>
       </c>
-      <c r="F51" s="82">
+      <c r="F51" s="61">
         <f>_intermediate!E25</f>
         <v>106</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="62">
         <f>_intermediate!J25/60</f>
         <v>0</v>
       </c>
-      <c r="H51" s="84">
+      <c r="H51" s="63">
         <f>_intermediate!K25/3600</f>
         <v>0</v>
       </c>
-      <c r="I51" s="89" cm="1">
+      <c r="I51" s="68" cm="1">
         <f t="array" aca="1" ref="I51" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>18</v>
       </c>
-      <c r="J51" s="90" cm="1">
+      <c r="J51" s="69" cm="1">
         <f t="array" aca="1" ref="J51" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>1.3548446680809141</v>
       </c>
-      <c r="K51" s="91" cm="1">
+      <c r="K51" s="70" cm="1">
         <f t="array" aca="1" ref="K51" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>2.9629629629629631E-2</v>
       </c>
-      <c r="L51" s="92" cm="1">
+      <c r="L51" s="71" cm="1">
         <f t="array" aca="1" ref="L51" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M51" s="86" cm="1">
+      <c r="M51" s="65" cm="1">
         <f t="array" aca="1" ref="M51" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N51" s="87">
+      <c r="N51" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O51" s="86">
+      <c r="O51" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P51" s="88" t="b">
+      <c r="P51" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79">
+      <c r="A52" s="57"/>
+      <c r="B52" s="58">
         <v>24</v>
       </c>
-      <c r="C52" s="80">
+      <c r="C52" s="59">
         <f>_intermediate!B26</f>
         <v>12</v>
       </c>
-      <c r="D52" s="80">
+      <c r="D52" s="59">
         <f>_intermediate!C26/3600</f>
         <v>5.4345133372042831</v>
       </c>
-      <c r="E52" s="81">
+      <c r="E52" s="60">
         <f>_intermediate!D26</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="F52" s="82">
+      <c r="F52" s="61">
         <f>_intermediate!E26</f>
         <v>26</v>
       </c>
-      <c r="G52" s="83">
+      <c r="G52" s="62">
         <f>_intermediate!J26/60</f>
         <v>0</v>
       </c>
-      <c r="H52" s="84">
+      <c r="H52" s="63">
         <f>_intermediate!K26/3600</f>
         <v>0</v>
       </c>
-      <c r="I52" s="89" cm="1">
+      <c r="I52" s="68" cm="1">
         <f t="array" aca="1" ref="I52" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>12</v>
       </c>
-      <c r="J52" s="90" cm="1">
+      <c r="J52" s="69" cm="1">
         <f t="array" aca="1" ref="J52" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>5.4345133372042831</v>
       </c>
-      <c r="K52" s="91" cm="1">
+      <c r="K52" s="70" cm="1">
         <f t="array" aca="1" ref="K52" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="L52" s="92" cm="1">
+      <c r="L52" s="71" cm="1">
         <f t="array" aca="1" ref="L52" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M52" s="86" cm="1">
+      <c r="M52" s="65" cm="1">
         <f t="array" aca="1" ref="M52" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N52" s="87">
+      <c r="N52" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O52" s="86">
+      <c r="O52" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P52" s="88" t="b">
+      <c r="P52" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79">
+      <c r="A53" s="57"/>
+      <c r="B53" s="58">
         <v>25</v>
       </c>
-      <c r="C53" s="80">
+      <c r="C53" s="59">
         <f>_intermediate!B27</f>
         <v>14</v>
       </c>
-      <c r="D53" s="80">
+      <c r="D53" s="59">
         <f>_intermediate!C27/3600</f>
         <v>3.3893628518114904</v>
       </c>
-      <c r="E53" s="81">
+      <c r="E53" s="60">
         <f>_intermediate!D27</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="F53" s="82">
+      <c r="F53" s="61">
         <f>_intermediate!E27</f>
         <v>42</v>
       </c>
-      <c r="G53" s="83">
+      <c r="G53" s="62">
         <f>_intermediate!J27/60</f>
         <v>0</v>
       </c>
-      <c r="H53" s="84">
+      <c r="H53" s="63">
         <f>_intermediate!K27/3600</f>
         <v>0</v>
       </c>
-      <c r="I53" s="89" cm="1">
+      <c r="I53" s="68" cm="1">
         <f t="array" aca="1" ref="I53" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>14</v>
       </c>
-      <c r="J53" s="90" cm="1">
+      <c r="J53" s="69" cm="1">
         <f t="array" aca="1" ref="J53" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.3893628518114904</v>
       </c>
-      <c r="K53" s="91" cm="1">
+      <c r="K53" s="70" cm="1">
         <f t="array" aca="1" ref="K53" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="L53" s="92" cm="1">
+      <c r="L53" s="71" cm="1">
         <f t="array" aca="1" ref="L53" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M53" s="86" cm="1">
+      <c r="M53" s="65" cm="1">
         <f t="array" aca="1" ref="M53" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N53" s="87">
+      <c r="N53" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O53" s="86">
+      <c r="O53" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P53" s="88" t="b">
+      <c r="P53" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
-      <c r="B54" s="79">
+      <c r="A54" s="57"/>
+      <c r="B54" s="58">
         <v>26</v>
       </c>
-      <c r="C54" s="80">
+      <c r="C54" s="59">
         <f>_intermediate!B28</f>
         <v>10</v>
       </c>
-      <c r="D54" s="80">
+      <c r="D54" s="59">
         <f>_intermediate!C28/3600</f>
         <v>1.8140926173695608</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="60">
         <f>_intermediate!D28</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="F54" s="82">
+      <c r="F54" s="61">
         <f>_intermediate!E28</f>
         <v>79</v>
       </c>
-      <c r="G54" s="83">
+      <c r="G54" s="62">
         <f>_intermediate!J28/60</f>
         <v>0</v>
       </c>
-      <c r="H54" s="84">
+      <c r="H54" s="63">
         <f>_intermediate!K28/3600</f>
         <v>0</v>
       </c>
-      <c r="I54" s="89" cm="1">
+      <c r="I54" s="68" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>10</v>
       </c>
-      <c r="J54" s="90" cm="1">
+      <c r="J54" s="69" cm="1">
         <f t="array" aca="1" ref="J54" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>1.8140926173695608</v>
       </c>
-      <c r="K54" s="91" cm="1">
+      <c r="K54" s="70" cm="1">
         <f t="array" aca="1" ref="K54" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="L54" s="92" cm="1">
+      <c r="L54" s="71" cm="1">
         <f t="array" aca="1" ref="L54" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M54" s="86" cm="1">
+      <c r="M54" s="65" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N54" s="87">
+      <c r="N54" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O54" s="86">
+      <c r="O54" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P54" s="88" t="b">
+      <c r="P54" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
-      <c r="B55" s="79">
+      <c r="A55" s="57"/>
+      <c r="B55" s="58">
         <v>27</v>
       </c>
-      <c r="C55" s="80">
+      <c r="C55" s="59">
         <f>_intermediate!B29</f>
         <v>13</v>
       </c>
-      <c r="D55" s="80">
+      <c r="D55" s="59">
         <f>_intermediate!C29/3600</f>
         <v>3.1250563055235303</v>
       </c>
-      <c r="E55" s="81">
+      <c r="E55" s="60">
         <f>_intermediate!D29</f>
         <v>4.1025641025641026E-2</v>
       </c>
-      <c r="F55" s="82">
+      <c r="F55" s="61">
         <f>_intermediate!E29</f>
         <v>46</v>
       </c>
-      <c r="G55" s="83">
+      <c r="G55" s="62">
         <f>_intermediate!J29/60</f>
         <v>0</v>
       </c>
-      <c r="H55" s="84">
+      <c r="H55" s="63">
         <f>_intermediate!K29/3600</f>
         <v>0</v>
       </c>
-      <c r="I55" s="89" cm="1">
+      <c r="I55" s="68" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>13</v>
       </c>
-      <c r="J55" s="90" cm="1">
+      <c r="J55" s="69" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.1250563055235303</v>
       </c>
-      <c r="K55" s="91" cm="1">
+      <c r="K55" s="70" cm="1">
         <f t="array" aca="1" ref="K55" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>4.1025641025641026E-2</v>
       </c>
-      <c r="L55" s="92" cm="1">
+      <c r="L55" s="71" cm="1">
         <f t="array" aca="1" ref="L55" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M55" s="86" cm="1">
+      <c r="M55" s="65" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N55" s="87">
+      <c r="N55" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O55" s="86">
+      <c r="O55" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P55" s="88" t="b">
+      <c r="P55" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
-      <c r="B56" s="79">
+      <c r="A56" s="57"/>
+      <c r="B56" s="58">
         <v>28</v>
       </c>
-      <c r="C56" s="80">
+      <c r="C56" s="59">
         <f>_intermediate!B30</f>
         <v>6</v>
       </c>
-      <c r="D56" s="80">
+      <c r="D56" s="59">
         <f>_intermediate!C30/3600</f>
         <v>3.1523345123147446</v>
       </c>
-      <c r="E56" s="81">
+      <c r="E56" s="60">
         <f>_intermediate!D30</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="F56" s="82">
+      <c r="F56" s="61">
         <f>_intermediate!E30</f>
         <v>45</v>
       </c>
-      <c r="G56" s="83">
+      <c r="G56" s="62">
         <f>_intermediate!J30/60</f>
         <v>0</v>
       </c>
-      <c r="H56" s="84">
+      <c r="H56" s="63">
         <f>_intermediate!K30/3600</f>
         <v>0</v>
       </c>
-      <c r="I56" s="89" cm="1">
+      <c r="I56" s="68" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>6</v>
       </c>
-      <c r="J56" s="90" cm="1">
+      <c r="J56" s="69" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.1523345123147446</v>
       </c>
-      <c r="K56" s="91" cm="1">
+      <c r="K56" s="70" cm="1">
         <f t="array" aca="1" ref="K56" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="L56" s="92" cm="1">
+      <c r="L56" s="71" cm="1">
         <f t="array" aca="1" ref="L56" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M56" s="86" cm="1">
+      <c r="M56" s="65" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N56" s="87">
+      <c r="N56" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O56" s="86">
+      <c r="O56" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P56" s="88" t="b">
+      <c r="P56" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
-      <c r="B57" s="79">
+      <c r="A57" s="57"/>
+      <c r="B57" s="58">
         <v>29</v>
       </c>
-      <c r="C57" s="80">
+      <c r="C57" s="59">
         <f>_intermediate!B31</f>
         <v>4</v>
       </c>
-      <c r="D57" s="80">
+      <c r="D57" s="59">
         <f>_intermediate!C31/3600</f>
         <v>3.5881836784725278</v>
       </c>
-      <c r="E57" s="81">
+      <c r="E57" s="60">
         <f>_intermediate!D31</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="F57" s="82">
+      <c r="F57" s="61">
         <f>_intermediate!E31</f>
         <v>40</v>
       </c>
-      <c r="G57" s="83">
+      <c r="G57" s="62">
         <f>_intermediate!J31/60</f>
         <v>0</v>
       </c>
-      <c r="H57" s="84">
+      <c r="H57" s="63">
         <f>_intermediate!K31/3600</f>
         <v>0</v>
       </c>
-      <c r="I57" s="89" cm="1">
+      <c r="I57" s="68" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>4</v>
       </c>
-      <c r="J57" s="90" cm="1">
+      <c r="J57" s="69" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>3.5881836784725278</v>
       </c>
-      <c r="K57" s="91" cm="1">
+      <c r="K57" s="70" cm="1">
         <f t="array" aca="1" ref="K57" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="L57" s="92" cm="1">
+      <c r="L57" s="71" cm="1">
         <f t="array" aca="1" ref="L57" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M57" s="86" cm="1">
+      <c r="M57" s="65" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N57" s="87">
+      <c r="N57" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O57" s="86">
+      <c r="O57" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P57" s="88" t="b">
+      <c r="P57" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
-      <c r="B58" s="79">
+      <c r="A58" s="57"/>
+      <c r="B58" s="58">
         <v>30</v>
       </c>
-      <c r="C58" s="80">
+      <c r="C58" s="59">
         <f>_intermediate!B32</f>
         <v>11</v>
       </c>
-      <c r="D58" s="80">
+      <c r="D58" s="59">
         <f>_intermediate!C32/3600</f>
         <v>7.7266032688664996</v>
       </c>
-      <c r="E58" s="81">
+      <c r="E58" s="60">
         <f>_intermediate!D32</f>
         <v>4.8484848484848492E-2</v>
       </c>
-      <c r="F58" s="82">
+      <c r="F58" s="61">
         <f>_intermediate!E32</f>
         <v>19</v>
       </c>
-      <c r="G58" s="83">
+      <c r="G58" s="62">
         <f>_intermediate!J32/60</f>
         <v>0</v>
       </c>
-      <c r="H58" s="84">
+      <c r="H58" s="63">
         <f>_intermediate!K32/3600</f>
         <v>0</v>
       </c>
-      <c r="I58" s="89" cm="1">
+      <c r="I58" s="68" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$8,"]]"))</f>
         <v>11</v>
       </c>
-      <c r="J58" s="90" cm="1">
+      <c r="J58" s="69" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$4,"]]"))</f>
         <v>7.7266032688664996</v>
       </c>
-      <c r="K58" s="91" cm="1">
+      <c r="K58" s="70" cm="1">
         <f t="array" aca="1" ref="K58" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$5,"]]"))</f>
         <v>4.8484848484848492E-2</v>
       </c>
-      <c r="L58" s="92" cm="1">
+      <c r="L58" s="71" cm="1">
         <f t="array" aca="1" ref="L58" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$6,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="M58" s="86" cm="1">
+      <c r="M58" s="65" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">INDIRECT(_xlfn.CONCAT("Table44[@[",$B$7,"]]"))</f>
         <v>0</v>
       </c>
-      <c r="N58" s="87">
+      <c r="N58" s="66">
         <f ca="1">Table44[[#This Row],[Objective 1]]</f>
         <v>0</v>
       </c>
-      <c r="O58" s="86">
+      <c r="O58" s="65">
         <f ca="1">IF(Table44[[#This Row],[Efficient?]],Table44[[#This Row],[Objective 2]],NA())</f>
         <v>0</v>
       </c>
-      <c r="P58" s="88" t="b">
+      <c r="P58" s="67" t="b">
         <f ca="1">IF(COUNTIFS(Table44[Objective 1],"&lt;"&amp;Table44[[#This Row],[Objective 1]],Table44[Objective 2],"&lt;"&amp;Table44[[#This Row],[Objective 2]])=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -13964,14 +13278,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B8" xr:uid="{A7852E70-5BEE-4D66-A649-520BB2C90F33}">
       <formula1>$C$28:$H$28</formula1>
     </dataValidation>

--- a/ExcelSheets/SimpleBatteryCharging.xlsx
+++ b/ExcelSheets/SimpleBatteryCharging.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A60A80D-ABC6-4BE9-90BE-8B28DB35A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4064A1D-98F5-4BA2-85F5-2518DD61A528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -379,7 +379,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,13 +1155,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1186,6 +1179,7 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1205,6 +1199,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1597,7 +1597,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1651,12 +1651,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F82F9D3-D2C7-4C41-930E-2A93B4D9DAF4}" type="CELLRANGE">
+                    <a:fld id="{F68F7642-C749-4F32-B05C-A6235127205A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1684,12 +1684,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35B927AF-3089-49AE-AD59-442D3AE6BD94}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4A25A495-0908-4513-8F00-81B63CA3EBA4}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1718,12 +1718,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27EFCA26-D6B0-45FD-8BE4-BF2AC64D3E46}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B64850D2-DA8C-4615-B912-4FF0F772DAF4}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1752,12 +1752,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E74300E8-8E0B-405C-95C5-460987FC1F9D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7CEB28D6-F36D-4356-90F7-9C11BF8BB021}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1786,12 +1786,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C373623C-FF17-4869-AA52-EA15F9BBDC08}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9ED9C8E1-07B6-4218-923C-8F6DD816172A}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1820,12 +1820,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB7361DA-5C82-4DD4-8D48-1441B9D13EAA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{398E75BB-5889-489F-8DEC-AFB02450FAC3}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1854,12 +1854,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E12013B-ABCF-417F-B8DA-31ED7B08E437}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{59ACE9C7-BEA6-458F-968C-AAA595553A90}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1888,12 +1888,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05D291CF-7811-4386-8C87-30FC1F55CC40}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{75F52580-EB60-49ED-B1E8-8DF31BB573F9}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1922,12 +1922,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6F6328E-D0DE-42D5-8611-7F3EDD0BE021}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D46A55DF-FB5C-4420-8EDC-D473C1907CC6}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1956,12 +1956,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBB15D4D-873C-485D-9603-568EA103B5B1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0D5656F6-E3DB-4659-AE99-DBFDB2F86A45}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1990,12 +1990,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02833AE2-21F8-476F-9FF7-5FB981A39B48}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8E6EFFAA-D742-4946-80F0-1A990A350968}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2024,12 +2024,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA691464-CDCD-42D4-98CD-92487C4A04F1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{15FB13CE-DD63-42B8-B528-3FDB2B9F6FDF}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2058,12 +2058,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FCFC22C-19D4-4AD8-AF25-6F78B5754C19}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{27666DB1-569C-4F2B-862F-815795A03E81}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2092,12 +2092,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D8935FC-A51F-4588-8637-3E92325747E9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EB977E01-BF39-471D-B5ED-7A20D612D286}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2126,12 +2126,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3331BCE1-2533-4802-980E-63F4E7FDFB27}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{245F7D05-C48E-4338-A474-858440244293}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2160,12 +2160,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F41FE02-D5EE-4BC9-83CD-72578284FDD0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CD2DB2AB-9285-4BA2-97CB-051F1D729F4D}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2194,12 +2194,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63E4F32B-ED92-463A-9C1F-4121471D13D6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{ED86ADD0-51D3-4E18-99D1-861F1CD39AFD}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2228,12 +2228,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75112A54-AFB0-477E-B98C-958B02A704BD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{931FB98B-0540-4B6B-8EDA-72683CEC5408}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2262,12 +2262,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BCF1545-D202-4453-9552-C37645356ABF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2583F514-57E4-496D-A945-24C96F22E22D}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2296,12 +2296,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{470A35B4-C69B-453B-A563-47B2989FDD28}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{56E71F4D-605F-4E88-B92C-BB76136452BF}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2330,12 +2330,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AE5E7E5-69F3-4B48-8445-7868AC57D10D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{007E4CC4-AC0E-4796-80E0-CE344422A2CF}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2364,12 +2364,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BB8DB90-7015-4616-966A-9F1FA520EBA9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6385402D-D420-45A6-B5EC-46D4CA4C8050}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2398,12 +2398,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D85A0AA0-7E28-48C1-80C6-6175CFC19E2B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0C242D57-95ED-4CF4-BD68-6FBDD8D12365}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2451,7 +2451,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-SE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2793,7 +2793,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-SE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2831,7 +2831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1337863680"/>
@@ -2904,7 +2904,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-SE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2942,7 +2942,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1337868928"/>
@@ -2990,7 +2990,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3066,7 +3066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3304,12 +3304,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C32A02DB-B6EF-4B19-B40E-220D853AD59E}" type="CELLRANGE">
+                    <a:fld id="{29DA302C-6006-435E-88AD-50790A66A972}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3337,12 +3337,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDC5D9CE-7A36-4055-AC4C-A0A7C2323EBE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3AB4B6A4-CC1A-4A79-BEC8-B13E68588831}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3371,12 +3371,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C299258F-09D6-4AD2-9EBB-0FE996A13FEC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FD9BDA3E-1183-40DF-9703-82D52CC8B277}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3405,12 +3405,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2704B4B1-BF9C-44AC-B165-6032A6C07832}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8190353D-F681-469A-BB46-2C14AAF9AB80}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3439,12 +3439,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA436C01-FF05-4C0D-BCA2-DD78641DDDCA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BA093B48-A810-41F2-88FA-07432B9BE322}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3473,12 +3473,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBC1B258-647C-44D3-9197-906E476DF8A2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3C15857B-8B25-4103-90C8-F0F783F3C8B4}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3507,12 +3507,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{730DFE19-4A4E-437E-8886-94210A2A75B8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{323DCC75-9F99-48D1-9F96-18AD2F0EB27E}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3541,12 +3541,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CA0C4B7-9638-4B9A-BE1F-10583A39E4DD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8CFA4009-7179-4DB3-ABDA-4427D7488D7A}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3575,12 +3575,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D4FC5F1-B8FA-444F-91E9-94D76C470732}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2921CC03-1145-48A1-AB5F-19008691207D}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3609,12 +3609,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7FA416A-F244-4EEA-8026-9E94B47DB7A8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CE61A13D-449E-4B39-8383-328E6034D539}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3643,12 +3643,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A70ECFF-D09D-40E0-9C15-51924C96DDA8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D531DAF3-2508-4E47-A990-144ACBBC0C86}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3677,12 +3677,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A501CA88-0F43-4AFE-A75B-10F4383761D1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D281CB2A-52C9-419A-8CB1-C7ABB91A83DB}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3711,12 +3711,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F904AD59-747F-45F4-AD03-0ECDBC46FDD9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2C0E0A7B-317A-4489-9D1B-A94F74D304C1}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3745,12 +3745,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B520698-7111-466A-996A-C4A26E07BFA9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7E9D6517-160D-4FBF-B338-36BC66D0C82F}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3779,12 +3779,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A716F097-A067-4602-A0C5-1B5127F2865C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{02D60AED-9C6D-4788-9A33-48552F6BD2A4}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3813,12 +3813,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34F8AF88-552B-4941-9801-61E4D63D6946}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4C92E084-10DB-454E-B93C-44F2703993E2}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3847,12 +3847,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C9D9162-ED5B-4B4B-8712-3A21051D0371}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{43A647C2-A89A-42B1-85A5-CBC2F165AE85}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3881,12 +3881,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1814D299-9E88-4233-BA84-6573F6471A74}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{706160F1-BF25-4AF0-A4C4-46829F4B18D7}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3915,12 +3915,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED35B4D2-F77A-44FC-8D9B-8821F8AC4AD5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0FB165A2-6135-46C2-883E-3413BCECBFCF}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3949,12 +3949,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E33FB5A-4E4A-437F-8965-3A35A2EFFF92}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{95D10F79-7D5C-4EA1-9B66-CBB911DF74EC}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3983,12 +3983,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C810C6C-6CC7-4D5F-B98D-E38D3ABA1B08}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{187BDCCF-C11A-4C6E-A822-D1E0C8CCA1D2}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4017,12 +4017,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D05694AD-045D-49A4-890B-8502EF9B3AC6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F0BC7723-3E6B-4D76-8F2F-14193DA7B295}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4051,12 +4051,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82E73D53-78BE-445E-A102-08678487E361}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9C21F5DB-9DD6-4EF3-A9F3-5AA0F6002C10}" type="CELLRANGE">
+                      <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4085,7 +4085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4113,7 +4113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4141,7 +4141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4169,7 +4169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4197,7 +4197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4225,7 +4225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4253,7 +4253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4281,7 +4281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4309,7 +4309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4337,7 +4337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4365,7 +4365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4393,7 +4393,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4421,7 +4421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4449,7 +4449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4477,7 +4477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4505,7 +4505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4533,7 +4533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4561,7 +4561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4589,7 +4589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4617,7 +4617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4645,7 +4645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4673,7 +4673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4701,7 +4701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4729,7 +4729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4757,7 +4757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4785,7 +4785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4813,7 +4813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4841,7 +4841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4869,7 +4869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4897,7 +4897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4925,7 +4925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4953,7 +4953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4981,7 +4981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5028,7 +5028,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-SE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5370,7 +5370,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-SE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5408,7 +5408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1337863680"/>
@@ -5481,7 +5481,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-SE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5519,7 +5519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1337868928"/>
@@ -5561,7 +5561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5598,7 +5598,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7716,7 +7716,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-SE" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -8194,10 +8194,10 @@
   <dimension ref="B1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="86.140625" style="1" customWidth="1"/>
@@ -8206,85 +8206,85 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:3" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" s="2" customFormat="1">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" s="2" customFormat="1">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" s="2" customFormat="1">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" s="2" customFormat="1">
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" s="2" customFormat="1">
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" s="2" customFormat="1">
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" s="2" customFormat="1">
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" s="2" customFormat="1">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" s="2" customFormat="1">
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" s="2" customFormat="1">
       <c r="B13" s="1"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="C14" s="5"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="7"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="21"/>
       <c r="C21" s="72"/>
     </row>
-    <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="20.25" thickBot="1">
       <c r="B24" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" s="73" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
@@ -8300,27 +8300,27 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" s="75" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="74"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" s="75"/>
       <c r="D31" s="76"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" s="73" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" s="2" customFormat="1">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8331,11 +8331,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="42" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="20.25" customHeight="1"/>
+    <row r="47" spans="2:10">
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10">
       <c r="B48" s="9"/>
     </row>
   </sheetData>
@@ -8356,7 +8356,7 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="10" bestFit="1" customWidth="1"/>
@@ -8364,7 +8364,7 @@
     <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="20.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -8376,10 +8376,10 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -8415,12 +8415,12 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="17.25" customHeight="1">
       <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="17.25" customHeight="1">
       <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="17.25" customHeight="1">
       <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="B19" t="s">
         <v>57</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>27815.771767919399</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="B20" t="s">
         <v>58</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>4.8484848484848492E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="B21" t="s">
         <v>59</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -9234,8 +9234,8 @@
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
     </row>
-    <row r="24" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="17.25" customHeight="1"/>
+    <row r="25" spans="1:33" ht="17.25" customHeight="1">
       <c r="B25" s="17" t="s">
         <v>23</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="17.25" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
@@ -9366,7 +9366,7 @@
       <c r="AF26" s="24"/>
       <c r="AG26" s="25"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
@@ -9401,12 +9401,12 @@
       <c r="AF27" s="23"/>
       <c r="AG27" s="22"/>
     </row>
-    <row r="29" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="17.25" customHeight="1">
       <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="17.25" customHeight="1">
       <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
@@ -9476,7 +9476,7 @@
       <c r="AF31"/>
       <c r="AG31"/>
     </row>
-    <row r="32" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="17.25" customHeight="1">
       <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
@@ -9511,7 +9511,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33">
       <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33">
       <c r="B34" s="10" t="s">
         <v>29</v>
       </c>
@@ -9581,7 +9581,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33">
       <c r="B35" s="10" t="s">
         <v>30</v>
       </c>
@@ -9632,7 +9632,7 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -9645,7 +9645,7 @@
     <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:K32">TRANSPOSE(ModelonExperiment!B17:AG27)</f>
         <v>Indata</v>
@@ -9681,7 +9681,7 @@
         <v>battery.summary.e_loss</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="str">
         <v>Case 1</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="str">
         <v>Case 2</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="str">
         <v>Case 3</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="str">
         <v>Case 4</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="str">
         <v>Case 5</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="str">
         <v>Case 6</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="str">
         <v>Case 7</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="str">
         <v>Case 8</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="str">
         <v>Case 9</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="str">
         <v>Case 10</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="str">
         <v>Case 11</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="str">
         <v>Case 12</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="str">
         <v>Case 13</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="str">
         <v>Case 14</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="str">
         <v>Case 15</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="str">
         <v>Case 16</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="str">
         <v>Case 17</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="str">
         <v>Case 18</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="str">
         <v>Case 19</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="str">
         <v>Case 20</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="str">
         <v>Case 21</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="str">
         <v>Case 22</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="str">
         <v>Case 23</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="str">
         <v>Case 24</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="str">
         <v>Case 25</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="str">
         <v>Case 26</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="str">
         <v>Case 27</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="str">
         <v>Case 28</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="str">
         <v>Case 29</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="str">
         <v>Case 30</v>
       </c>
@@ -10780,7 +10780,7 @@
       <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="27" bestFit="1" customWidth="1"/>
@@ -10803,21 +10803,21 @@
     <col min="35" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:25" ht="52.5" customHeight="1">
+      <c r="A1" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
@@ -10832,7 +10832,7 @@
       <c r="X1" s="26"/>
       <c r="Y1" s="26"/>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2"/>
       <c r="C2" s="29"/>
@@ -10851,12 +10851,12 @@
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
+      <c r="A3" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -10867,14 +10867,14 @@
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="77"/>
+      <c r="C4" s="85"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10887,14 +10887,14 @@
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="85"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -10907,14 +10907,14 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="85"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -10927,14 +10927,14 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="85"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -10947,14 +10947,14 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="85"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -10967,16 +10967,16 @@
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="C9" s="29"/>
       <c r="D9" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="88" t="str">
+      <c r="E9" s="86" t="str">
         <f>_xlfn.CONCAT(B5," vs. ",B4)</f>
         <v>Cell Internal Resitance (Ω) vs. Cell Nominal Capacity (Ah)</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -10989,16 +10989,16 @@
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
     </row>
-    <row r="10" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="C10" s="29"/>
       <c r="D10" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="89" t="str">
+      <c r="E10" s="87" t="str">
         <f>_xlfn.CONCAT(B8)</f>
         <v>Cell Max Charge Current (A)</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -11011,7 +11011,7 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -11030,12 +11030,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+    <row r="12" spans="1:25" ht="15" customHeight="1">
+      <c r="A12" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -11051,7 +11051,7 @@
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15" customHeight="1">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -11070,7 +11070,7 @@
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -11089,7 +11089,7 @@
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -11108,7 +11108,7 @@
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -11127,7 +11127,7 @@
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -11146,7 +11146,7 @@
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -11165,7 +11165,7 @@
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -11184,7 +11184,7 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -11203,7 +11203,7 @@
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -11222,7 +11222,7 @@
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -11241,7 +11241,7 @@
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -11260,7 +11260,7 @@
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -11279,7 +11279,7 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -11298,7 +11298,7 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15" customHeight="1">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -11325,35 +11325,35 @@
       <c r="X26" s="29"/>
       <c r="Y26" s="29"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="s">
+    <row r="27" spans="1:25" ht="15">
+      <c r="A27" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="80" t="s">
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82" t="s">
+      <c r="H27" s="78"/>
+      <c r="I27" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="85" t="s">
+      <c r="J27" s="80"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
+    </row>
+    <row r="28" spans="1:25" ht="15">
       <c r="A28" s="33" t="s">
         <v>29</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25">
       <c r="A29" s="45"/>
       <c r="B29" s="46">
         <v>1</v>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25">
       <c r="A30" s="57"/>
       <c r="B30" s="58">
         <v>2</v>
@@ -11527,7 +11527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" hidden="1">
       <c r="A31" s="57"/>
       <c r="B31" s="58">
         <v>3</v>
@@ -11589,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" hidden="1">
       <c r="A32" s="57"/>
       <c r="B32" s="58">
         <v>4</v>
@@ -11651,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33" s="57"/>
       <c r="B33" s="58">
         <v>5</v>
@@ -11713,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="57"/>
       <c r="B34" s="58">
         <v>6</v>
@@ -11775,7 +11775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" hidden="1">
       <c r="A35" s="57"/>
       <c r="B35" s="58">
         <v>7</v>
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36" s="57"/>
       <c r="B36" s="58">
         <v>8</v>
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" hidden="1">
       <c r="A37" s="57"/>
       <c r="B37" s="58">
         <v>9</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="57"/>
       <c r="B38" s="58">
         <v>10</v>
@@ -12023,7 +12023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39" s="57"/>
       <c r="B39" s="58">
         <v>11</v>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40" s="57"/>
       <c r="B40" s="58">
         <v>12</v>
@@ -12147,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="57"/>
       <c r="B41" s="58">
         <v>13</v>
@@ -12209,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" hidden="1">
       <c r="A42" s="57"/>
       <c r="B42" s="58">
         <v>14</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43" s="57"/>
       <c r="B43" s="58">
         <v>15</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44" s="57"/>
       <c r="B44" s="58">
         <v>16</v>
@@ -12395,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45" s="57"/>
       <c r="B45" s="58">
         <v>17</v>
@@ -12457,7 +12457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="57"/>
       <c r="B46" s="58">
         <v>18</v>
@@ -12519,7 +12519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47" s="57"/>
       <c r="B47" s="58">
         <v>19</v>
@@ -12581,7 +12581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="57"/>
       <c r="B48" s="58">
         <v>20</v>
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="57"/>
       <c r="B49" s="58">
         <v>21</v>
@@ -12705,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="57"/>
       <c r="B50" s="58">
         <v>22</v>
@@ -12767,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="57"/>
       <c r="B51" s="58">
         <v>23</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="57"/>
       <c r="B52" s="58">
         <v>24</v>
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53" s="57"/>
       <c r="B53" s="58">
         <v>25</v>
@@ -12953,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="57"/>
       <c r="B54" s="58">
         <v>26</v>
@@ -13015,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55" s="57"/>
       <c r="B55" s="58">
         <v>27</v>
@@ -13077,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56" s="57"/>
       <c r="B56" s="58">
         <v>28</v>
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57" s="57"/>
       <c r="B57" s="58">
         <v>29</v>
@@ -13201,7 +13201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" hidden="1">
       <c r="A58" s="57"/>
       <c r="B58" s="58">
         <v>30</v>
@@ -13269,6 +13269,12 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="L27:P27"/>
@@ -13278,12 +13284,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B8" xr:uid="{A7852E70-5BEE-4D66-A649-520BB2C90F33}">

--- a/ExcelSheets/SimpleBatteryCharging.xlsx
+++ b/ExcelSheets/SimpleBatteryCharging.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4064A1D-98F5-4BA2-85F5-2518DD61A528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A9D02A-2119-4CB1-AF63-1A193B5C495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Introduction</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>Title Histogram:</t>
-  </si>
-  <si>
-    <t>Open in Modelon Impact</t>
   </si>
   <si>
     <t>Experiment</t>
@@ -1155,6 +1152,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,7 +1183,6 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1199,12 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1651,7 +1648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F68F7642-C749-4F32-B05C-A6235127205A}" type="CELLRANGE">
+                    <a:fld id="{7C2EEAB0-36AD-445F-8456-4A5CF7DE1C30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1684,7 +1681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A25A495-0908-4513-8F00-81B63CA3EBA4}" type="CELLRANGE">
+                    <a:fld id="{043FDCDD-DA28-4637-A4F0-3F80BE19E781}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1718,7 +1715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B64850D2-DA8C-4615-B912-4FF0F772DAF4}" type="CELLRANGE">
+                    <a:fld id="{00241673-CF02-4BEC-85C3-D4657A173CD6}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1752,7 +1749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CEB28D6-F36D-4356-90F7-9C11BF8BB021}" type="CELLRANGE">
+                    <a:fld id="{5B668927-0153-4D80-A398-D76F2E00DB58}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1786,7 +1783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9ED9C8E1-07B6-4218-923C-8F6DD816172A}" type="CELLRANGE">
+                    <a:fld id="{1F497C90-BFCB-47C7-A8C9-E06F25A56524}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1820,7 +1817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{398E75BB-5889-489F-8DEC-AFB02450FAC3}" type="CELLRANGE">
+                    <a:fld id="{3A8E9428-ABEF-49AA-866E-1D03C21B123D}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1854,7 +1851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59ACE9C7-BEA6-458F-968C-AAA595553A90}" type="CELLRANGE">
+                    <a:fld id="{71B4CFF9-D266-4506-BB8F-BEC828EC7117}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1888,7 +1885,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75F52580-EB60-49ED-B1E8-8DF31BB573F9}" type="CELLRANGE">
+                    <a:fld id="{D2BACF7C-B94F-47DD-80E8-C43237E9FAE3}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1922,7 +1919,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D46A55DF-FB5C-4420-8EDC-D473C1907CC6}" type="CELLRANGE">
+                    <a:fld id="{6457D793-6E87-4C88-AE68-36A64E2A423B}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1956,7 +1953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D5656F6-E3DB-4659-AE99-DBFDB2F86A45}" type="CELLRANGE">
+                    <a:fld id="{BEF5D028-7169-43A0-B95F-8E7CCACA5A46}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1990,7 +1987,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E6EFFAA-D742-4946-80F0-1A990A350968}" type="CELLRANGE">
+                    <a:fld id="{8D81A419-5A8D-43E1-AD0A-486B5262E7CA}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2024,7 +2021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15FB13CE-DD63-42B8-B528-3FDB2B9F6FDF}" type="CELLRANGE">
+                    <a:fld id="{99F516EB-4D62-4BB2-96F2-7E2616D69CAA}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2058,7 +2055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27666DB1-569C-4F2B-862F-815795A03E81}" type="CELLRANGE">
+                    <a:fld id="{E9460853-C664-4831-ACF9-53DCA4554520}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2092,7 +2089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB977E01-BF39-471D-B5ED-7A20D612D286}" type="CELLRANGE">
+                    <a:fld id="{411D2523-7869-4104-82AE-B19446A716DC}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2126,7 +2123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{245F7D05-C48E-4338-A474-858440244293}" type="CELLRANGE">
+                    <a:fld id="{94B118F4-F76C-4F6E-8642-7DE8DD214BF2}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2160,7 +2157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD2DB2AB-9285-4BA2-97CB-051F1D729F4D}" type="CELLRANGE">
+                    <a:fld id="{21B94314-4CAD-4846-9180-741ADCA62234}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2194,7 +2191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED86ADD0-51D3-4E18-99D1-861F1CD39AFD}" type="CELLRANGE">
+                    <a:fld id="{188E1D4F-B97C-48A2-9B23-A571F1403C10}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2228,7 +2225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{931FB98B-0540-4B6B-8EDA-72683CEC5408}" type="CELLRANGE">
+                    <a:fld id="{65423988-8445-4DE0-9771-F8CC57412F53}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2262,7 +2259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2583F514-57E4-496D-A945-24C96F22E22D}" type="CELLRANGE">
+                    <a:fld id="{DF051D04-C0EB-43F9-9088-64A450137124}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2296,7 +2293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56E71F4D-605F-4E88-B92C-BB76136452BF}" type="CELLRANGE">
+                    <a:fld id="{ACD4F83F-F633-453F-AE3E-4C8C77C19B4B}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2330,7 +2327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{007E4CC4-AC0E-4796-80E0-CE344422A2CF}" type="CELLRANGE">
+                    <a:fld id="{04412882-87AB-4EC6-925E-CB4FA7A01C1C}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2364,7 +2361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6385402D-D420-45A6-B5EC-46D4CA4C8050}" type="CELLRANGE">
+                    <a:fld id="{287C195C-DB01-4E40-B37D-82C87932A529}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2398,7 +2395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C242D57-95ED-4CF4-BD68-6FBDD8D12365}" type="CELLRANGE">
+                    <a:fld id="{84B70749-163D-4469-8878-BBB6539116A5}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3304,7 +3301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29DA302C-6006-435E-88AD-50790A66A972}" type="CELLRANGE">
+                    <a:fld id="{0C73A6BF-694A-48CA-920A-90F0A0718239}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3337,7 +3334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AB4B6A4-CC1A-4A79-BEC8-B13E68588831}" type="CELLRANGE">
+                    <a:fld id="{8504C208-4C95-4E48-AD06-3302BAFBD3DF}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3371,7 +3368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD9BDA3E-1183-40DF-9703-82D52CC8B277}" type="CELLRANGE">
+                    <a:fld id="{A1ED206F-235A-49DD-A523-1F7245F1BF87}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3405,7 +3402,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8190353D-F681-469A-BB46-2C14AAF9AB80}" type="CELLRANGE">
+                    <a:fld id="{C19DB21B-1096-4EB6-89FE-58EC584657CC}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3439,7 +3436,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA093B48-A810-41F2-88FA-07432B9BE322}" type="CELLRANGE">
+                    <a:fld id="{D9C31681-AC99-473E-B8E6-1CF6F995ECA7}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3473,7 +3470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C15857B-8B25-4103-90C8-F0F783F3C8B4}" type="CELLRANGE">
+                    <a:fld id="{00F8A769-22CB-4473-869A-27730F4D413D}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3507,7 +3504,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{323DCC75-9F99-48D1-9F96-18AD2F0EB27E}" type="CELLRANGE">
+                    <a:fld id="{0DF3EFCE-D70C-4F5D-B06A-5A6029E6A427}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3541,7 +3538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CFA4009-7179-4DB3-ABDA-4427D7488D7A}" type="CELLRANGE">
+                    <a:fld id="{2D880178-0611-4BD0-AFC7-A6F60F6B5933}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3575,7 +3572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2921CC03-1145-48A1-AB5F-19008691207D}" type="CELLRANGE">
+                    <a:fld id="{977385F5-C332-49E7-997D-17027A90FE78}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3609,7 +3606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE61A13D-449E-4B39-8383-328E6034D539}" type="CELLRANGE">
+                    <a:fld id="{37AEA08F-CBD0-48E7-9DA2-7B8515EE2CC3}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3643,7 +3640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D531DAF3-2508-4E47-A990-144ACBBC0C86}" type="CELLRANGE">
+                    <a:fld id="{68AD58F1-3DF8-43C5-83D3-8BD31EE78303}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3677,7 +3674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D281CB2A-52C9-419A-8CB1-C7ABB91A83DB}" type="CELLRANGE">
+                    <a:fld id="{CC9D6BCD-26B7-461C-93CA-95E52FD9D6E9}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3711,7 +3708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C0E0A7B-317A-4489-9D1B-A94F74D304C1}" type="CELLRANGE">
+                    <a:fld id="{0419E79A-D9E0-4CCF-A592-93EAECC25950}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3745,7 +3742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E9D6517-160D-4FBF-B338-36BC66D0C82F}" type="CELLRANGE">
+                    <a:fld id="{9D32D242-D85E-463F-BA6F-0EC29E592DD5}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3779,7 +3776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02D60AED-9C6D-4788-9A33-48552F6BD2A4}" type="CELLRANGE">
+                    <a:fld id="{2E9E4708-2AD8-43C9-B3A0-CDF226F272A7}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3813,7 +3810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C92E084-10DB-454E-B93C-44F2703993E2}" type="CELLRANGE">
+                    <a:fld id="{EABF47FF-8E7A-43F9-BF5E-D90B8057FC34}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3847,7 +3844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43A647C2-A89A-42B1-85A5-CBC2F165AE85}" type="CELLRANGE">
+                    <a:fld id="{5FFAB243-17EC-4778-BEFB-8EEE257DEA7E}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3881,7 +3878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{706160F1-BF25-4AF0-A4C4-46829F4B18D7}" type="CELLRANGE">
+                    <a:fld id="{72035D3D-490F-477A-8CBD-DDF1BABA0DF9}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3915,7 +3912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FB165A2-6135-46C2-883E-3413BCECBFCF}" type="CELLRANGE">
+                    <a:fld id="{D21A70DC-AAC3-473C-8586-AF65D47DCBEE}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3949,7 +3946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95D10F79-7D5C-4EA1-9B66-CBB911DF74EC}" type="CELLRANGE">
+                    <a:fld id="{D00FD96D-9E36-4204-B462-6B9AFC1E0DDE}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3983,7 +3980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{187BDCCF-C11A-4C6E-A822-D1E0C8CCA1D2}" type="CELLRANGE">
+                    <a:fld id="{12BE6668-97D6-4147-BA2A-30CDB181D544}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4017,7 +4014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0BC7723-3E6B-4D76-8F2F-14193DA7B295}" type="CELLRANGE">
+                    <a:fld id="{05AFD421-ADD4-489A-A69F-E0EC5EAA483B}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4051,7 +4048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C21F5DB-9DD6-4EF3-A9F3-5AA0F6002C10}" type="CELLRANGE">
+                    <a:fld id="{CB0CF633-C5DB-4AE0-A297-2DD4BEA1BC6D}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8194,7 +8191,7 @@
   <dimension ref="B1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8208,12 +8205,12 @@
   <sheetData>
     <row r="1" spans="2:3" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="2" customFormat="1">
@@ -8276,33 +8273,33 @@
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1">
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="74"/>
     </row>
@@ -8312,12 +8309,12 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:10" s="2" customFormat="1">
@@ -8392,7 +8389,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -10777,7 +10774,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="25" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -10804,20 +10801,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="52.5" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
@@ -10852,11 +10849,11 @@
       <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -10871,10 +10868,10 @@
       <c r="A4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="85"/>
+      <c r="C4" s="77"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10891,10 +10888,10 @@
       <c r="A5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="77"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -10911,10 +10908,10 @@
       <c r="A6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="77"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -10931,10 +10928,10 @@
       <c r="A7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="77"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -10951,10 +10948,10 @@
       <c r="A8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="77"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -10972,11 +10969,11 @@
       <c r="D9" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="88" t="str">
         <f>_xlfn.CONCAT(B5," vs. ",B4)</f>
         <v>Cell Internal Resitance (Ω) vs. Cell Nominal Capacity (Ah)</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -10994,11 +10991,11 @@
       <c r="D10" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="87" t="str">
+      <c r="E10" s="89" t="str">
         <f>_xlfn.CONCAT(B8)</f>
         <v>Cell Max Charge Current (A)</v>
       </c>
-      <c r="F10" s="87"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -11031,11 +11028,9 @@
       <c r="V11" s="29"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1">
-      <c r="A12" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -11326,39 +11321,39 @@
       <c r="Y26" s="29"/>
     </row>
     <row r="27" spans="1:25" ht="15">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91" t="s">
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="84"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
     </row>
     <row r="28" spans="1:25" ht="15">
       <c r="A28" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>73</v>
@@ -11370,7 +11365,7 @@
         <v>67</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>69</v>
@@ -11379,28 +11374,28 @@
         <v>71</v>
       </c>
       <c r="I28" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="K28" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="L28" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="M28" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="M28" s="44" t="s">
+      <c r="N28" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="N28" s="44" t="s">
+      <c r="O28" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="44" t="s">
+      <c r="P28" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="P28" s="44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -13269,12 +13264,6 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="L27:P27"/>
@@ -13284,6 +13273,12 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B8" xr:uid="{A7852E70-5BEE-4D66-A649-520BB2C90F33}">
@@ -13293,14 +13288,11 @@
       <formula1>$G$28:$H$28</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A12:C12" r:id="rId1" location="SimpleBatteryCharging" display="Open Model In Impact" xr:uid="{5F3A9745-3CBE-4770-9FCD-7CDB0E938A45}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ExcelSheets/SimpleBatteryCharging.xlsx
+++ b/ExcelSheets/SimpleBatteryCharging.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B803D6B9-3342-4572-B981-BB2D78C7FB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA71C13-4B4C-45DB-AAC6-D24FFF941F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -389,9 +389,6 @@
     <t>dynamic</t>
   </si>
   <si>
-    <t>https://jhmi-staging.modelon.com</t>
-  </si>
-  <si>
     <t>dynamic_diagnostics</t>
   </si>
   <si>
@@ -615,6 +612,9 @@
   </si>
   <si>
     <t>3. First time you open the sheet you will need to use the "Run baseline" button to initialize the experiment sheet.</t>
+  </si>
+  <si>
+    <t>https://impact.modelon.cloud</t>
   </si>
 </sst>
 </file>
@@ -1431,13 +1431,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1462,6 +1455,7 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1481,6 +1475,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1982,7 +1982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BEC11D1-0DDB-4134-AE7B-8778FB885FE5}" type="CELLRANGE">
+                    <a:fld id="{F13F5ACC-2463-4F75-86E4-403C78CE624F}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2016,7 +2016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCA8AC75-FCF5-4DEF-993D-70063A343B39}" type="CELLRANGE">
+                    <a:fld id="{56E41C7C-DEAD-46C7-A280-933E01B33944}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2050,7 +2050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43598C74-3989-4D51-B0F5-97D6B93F459E}" type="CELLRANGE">
+                    <a:fld id="{D03152EB-BFCF-49B6-978C-515F1DCCAC47}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2084,7 +2084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58329F94-9B6B-448E-A191-F7B5A1D05D16}" type="CELLRANGE">
+                    <a:fld id="{8807AA43-4A93-47D7-81E0-F8EFA7600F29}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2118,7 +2118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{556C45A9-5B48-4EA4-9CBD-AEA21DB2C9D8}" type="CELLRANGE">
+                    <a:fld id="{9D83D1F4-A8BF-4ABB-88BC-EFF6C9470678}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2152,7 +2152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81B8E6F0-15C0-430F-A09A-516FD9EB0962}" type="CELLRANGE">
+                    <a:fld id="{29233E69-636D-4E78-AB52-C61EDF1F28AD}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2186,7 +2186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14EEE173-9593-4CCD-9081-DC8FB6B67469}" type="CELLRANGE">
+                    <a:fld id="{E03B68D9-F020-4D9A-8F06-2F87F1D5DF7A}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2220,7 +2220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{620714F7-1662-4378-B46E-88C67D6FB966}" type="CELLRANGE">
+                    <a:fld id="{1C6FADE8-1BC1-4150-880A-95D602496056}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2254,7 +2254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE512BCB-0EDF-42F9-A694-981935E55157}" type="CELLRANGE">
+                    <a:fld id="{00F689CA-34E1-4342-AD72-78BFD085556E}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2288,7 +2288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13D3C4EA-C29A-4C51-A697-C37804628559}" type="CELLRANGE">
+                    <a:fld id="{E13C2941-B631-4AEE-B0F3-4B6009B5B030}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2322,7 +2322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{443184B2-AEF1-44AB-890D-F906F98F89F7}" type="CELLRANGE">
+                    <a:fld id="{598F3157-BC1D-4B4A-B3A4-93E05AE1014E}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2356,7 +2356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E22C9A30-34A6-456C-A583-DD5D1F1D913A}" type="CELLRANGE">
+                    <a:fld id="{19965CDF-8459-4138-827E-FA780212EAC7}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2390,7 +2390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5958B628-9499-4F35-BB01-7A1EF51C1AF8}" type="CELLRANGE">
+                    <a:fld id="{C6073AE2-A5CF-4E32-B636-41FFE0E90844}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2424,7 +2424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{479D5FD5-E445-4F01-BD92-7A2EE7445628}" type="CELLRANGE">
+                    <a:fld id="{92EDBE45-7C07-433E-806B-C853DABFAE38}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2458,7 +2458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B11AF68B-45E8-43F0-B799-7F6F5F8446DE}" type="CELLRANGE">
+                    <a:fld id="{AC0DFB7A-C4D9-4527-80C8-EA14A0F448C7}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2492,7 +2492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD90E567-3E39-4BF8-A87D-A2E781A3D050}" type="CELLRANGE">
+                    <a:fld id="{401D2E78-21E8-4F8B-8A8C-F6F942A3608B}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2526,7 +2526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DE49F9C-64FF-4DD5-8E38-5734A7CEADA1}" type="CELLRANGE">
+                    <a:fld id="{61BE5A34-9377-49D6-BC27-1AD81B3EDEB7}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2560,7 +2560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85917021-79BB-46C1-8FCE-C0FFD17F36A6}" type="CELLRANGE">
+                    <a:fld id="{FA9FDECD-4CB2-412B-9E35-A5CF74625D43}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2594,7 +2594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F5F5C76-1B6B-4FD7-BC30-A4BCE46BA411}" type="CELLRANGE">
+                    <a:fld id="{5D6941A3-470F-457C-8018-AEAF05146AE8}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2628,7 +2628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCC59C1A-8F6B-4932-B042-2AF95A68DD18}" type="CELLRANGE">
+                    <a:fld id="{31A04C73-7111-4423-81BD-72D0A148224B}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2662,7 +2662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23C539FE-BAEE-483A-BE48-272DED0183D7}" type="CELLRANGE">
+                    <a:fld id="{9A8C416E-0A4F-47E9-9FD0-F3CBE29878F9}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2696,7 +2696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E634EA8-415E-4986-8571-C6C778F2DAFB}" type="CELLRANGE">
+                    <a:fld id="{4EA9A11F-8F3B-42A0-93BB-2A6BAF336211}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3663,7 +3663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91FDF5C3-901A-4DB7-9A07-38C0BA0F322C}" type="CELLRANGE">
+                    <a:fld id="{92B82436-38B3-40D5-9AA3-B0A2A71B67C8}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3837,7 +3837,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A295DE88-FFD0-488A-8FB3-AAB58B290EFE}" type="CELLRANGE">
+                    <a:fld id="{8B5F07C9-F975-4A42-BBBF-3CB946FDFFF3}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4011,7 +4011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8F26EAF-62C2-4FF9-8F30-C3EBCA990D69}" type="CELLRANGE">
+                    <a:fld id="{A92312FD-FDD7-4259-823F-AB03EF81BD8C}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4101,7 +4101,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CEA1B95-A54D-413B-9E76-241E8CB3A1A3}" type="CELLRANGE">
+                    <a:fld id="{F03661CB-E454-496C-9358-C54550C43F80}" type="CELLRANGE">
                       <a:rPr lang="en-SE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" s="72"/>
     </row>
@@ -8551,7 +8551,7 @@
   <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -8623,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -8709,7 +8709,7 @@
         <v>103</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:35" collapsed="1">
@@ -8724,7 +8724,7 @@
     </row>
     <row r="16" spans="1:35" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="74" t="b">
         <v>0</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="17" spans="1:35" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="74">
         <v>500</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="20" spans="1:35" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="74">
         <v>9.9999999999999995E-7</v>
@@ -8768,15 +8768,15 @@
     </row>
     <row r="23" spans="1:35" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="74" t="b">
         <v>0</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="74" t="b">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="75">
@@ -9298,7 +9298,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="75">
@@ -9400,7 +9400,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="75">
@@ -9746,7 +9746,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="73" t="b">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="74" t="b">
         <v>0</v>
@@ -9959,94 +9959,94 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="17.25" customHeight="1">
@@ -10089,94 +10089,94 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" t="s">
         <v>154</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>155</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>156</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>157</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>158</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>159</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
+        <v>154</v>
+      </c>
+      <c r="N47" t="s">
         <v>160</v>
       </c>
-      <c r="M47" t="s">
-        <v>155</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>161</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>162</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>163</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>164</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>165</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>166</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
+        <v>161</v>
+      </c>
+      <c r="V47" t="s">
         <v>167</v>
       </c>
-      <c r="U47" t="s">
-        <v>162</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>168</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>169</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>170</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>171</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>172</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>173</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>174</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE47" t="s">
         <v>175</v>
       </c>
-      <c r="AD47" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
         <v>176</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>177</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" t="s">
         <v>178</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
         <v>179</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -10184,94 +10184,94 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" t="s">
+        <v>180</v>
+      </c>
+      <c r="K48" t="s">
+        <v>180</v>
+      </c>
+      <c r="L48" t="s">
+        <v>180</v>
+      </c>
+      <c r="M48" t="s">
+        <v>180</v>
+      </c>
+      <c r="N48" t="s">
         <v>181</v>
       </c>
-      <c r="G48" t="s">
+      <c r="O48" t="s">
         <v>181</v>
       </c>
-      <c r="H48" t="s">
+      <c r="P48" t="s">
         <v>181</v>
       </c>
-      <c r="I48" t="s">
+      <c r="Q48" t="s">
         <v>181</v>
       </c>
-      <c r="J48" t="s">
+      <c r="R48" t="s">
         <v>181</v>
       </c>
-      <c r="K48" t="s">
+      <c r="S48" t="s">
         <v>181</v>
       </c>
-      <c r="L48" t="s">
+      <c r="T48" t="s">
         <v>181</v>
       </c>
-      <c r="M48" t="s">
+      <c r="U48" t="s">
         <v>181</v>
       </c>
-      <c r="N48" t="s">
-        <v>182</v>
-      </c>
-      <c r="O48" t="s">
-        <v>182</v>
-      </c>
-      <c r="P48" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>182</v>
-      </c>
-      <c r="R48" t="s">
-        <v>182</v>
-      </c>
-      <c r="S48" t="s">
-        <v>182</v>
-      </c>
-      <c r="T48" t="s">
-        <v>182</v>
-      </c>
-      <c r="U48" t="s">
-        <v>182</v>
-      </c>
       <c r="V48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:35">
@@ -10279,7 +10279,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -10316,94 +10316,94 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
         <v>122</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>123</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>124</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>125</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>126</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>127</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>128</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>129</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>130</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>131</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>132</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>133</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>134</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>135</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>136</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>137</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>138</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>139</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>140</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>141</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>142</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>143</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50" t="s">
         <v>144</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AD50" t="s">
         <v>145</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>146</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
         <v>147</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
         <v>148</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AH50" t="s">
         <v>149</v>
       </c>
-      <c r="AH50" t="s">
+      <c r="AI50" t="s">
         <v>150</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -11677,20 +11677,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="52.5" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
@@ -11725,11 +11725,11 @@
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -11744,10 +11744,10 @@
       <c r="A4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="86"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -11764,10 +11764,10 @@
       <c r="A5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="86"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -11784,10 +11784,10 @@
       <c r="A6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="86"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -11804,10 +11804,10 @@
       <c r="A7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="86"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -11824,10 +11824,10 @@
       <c r="A8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="86"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -11845,11 +11845,11 @@
       <c r="D9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="89" t="str">
+      <c r="E9" s="87" t="str">
         <f>_xlfn.CONCAT(B5," vs. ",B4)</f>
         <v>Cell Internal Resitance (Ω) vs. Cell Nominal Capacity (Ah)</v>
       </c>
-      <c r="F9" s="89"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -11867,11 +11867,11 @@
       <c r="D10" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="90" t="str">
+      <c r="E10" s="88" t="str">
         <f>_xlfn.CONCAT(B8)</f>
         <v>Cell Max Charge Current (A)</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -11904,9 +11904,9 @@
       <c r="V11" s="25"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -12197,32 +12197,32 @@
       <c r="Y26" s="25"/>
     </row>
     <row r="27" spans="1:25" ht="15">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="94" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="81" t="s">
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="83" t="s">
+      <c r="H27" s="79"/>
+      <c r="I27" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="86" t="s">
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="85"/>
     </row>
     <row r="28" spans="1:25" ht="15">
       <c r="A28" s="29" t="s">
@@ -14140,6 +14140,12 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="L27:P27"/>
@@ -14149,12 +14155,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B8" xr:uid="{A7852E70-5BEE-4D66-A649-520BB2C90F33}">
